--- a/PythonResources/Data/Consumption/Sympheny/futu_1359_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1359_coo.xlsx
@@ -631,7 +631,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>3.620775454245457</v>
+        <v>3.620775454245456</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -655,7 +655,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>8.694919496316391</v>
+        <v>8.694919496316389</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -663,7 +663,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>7.686051752828576</v>
+        <v>7.686051752828575</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -887,7 +887,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>7.563020530798543</v>
+        <v>7.563020530798542</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>6.688584472744688</v>
+        <v>6.688584472744687</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>3.917685723513266</v>
+        <v>3.917685723513265</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>6.580382645270919</v>
+        <v>6.580382645270918</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>0.9843230439999274</v>
+        <v>0.9843230439999272</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>5.171502241114234</v>
+        <v>5.171502241114233</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>7.982493108434527</v>
+        <v>7.982493108434526</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>6.356945285395509</v>
+        <v>6.356945285395508</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>6.312691558557646</v>
+        <v>6.312691558557645</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>5.823849066070522</v>
+        <v>5.823849066070521</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>8.634400326832823</v>
+        <v>8.634400326832822</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>371</v>
       </c>
       <c r="B371">
-        <v>7.005570108160798</v>
+        <v>7.005570108160797</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>16.96066576361711</v>
+        <v>16.9606657636171</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>379</v>
       </c>
       <c r="B379">
-        <v>13.42265357068962</v>
+        <v>13.42265357068961</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>380</v>
       </c>
       <c r="B380">
-        <v>8.567492208706438</v>
+        <v>8.567492208706437</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>5.978766417106909</v>
+        <v>5.978766417106908</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>396</v>
       </c>
       <c r="B396">
-        <v>3.917597802201667</v>
+        <v>3.917597802201666</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>5.645515339045093</v>
+        <v>5.645515339045092</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>7.511352106682548</v>
+        <v>7.511352106682547</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>9.880157390870604</v>
+        <v>9.880157390870602</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>5.717933192698312</v>
+        <v>5.717933192698311</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>6.366851086502262</v>
+        <v>6.366851086502261</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>426</v>
       </c>
       <c r="B426">
-        <v>2.834978731834725</v>
+        <v>2.834978731834724</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>6.407294889837528</v>
+        <v>6.407294889837527</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>450</v>
       </c>
       <c r="B450">
-        <v>5.483915968327228</v>
+        <v>5.483915968327227</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>451</v>
       </c>
       <c r="B451">
-        <v>3.157576677641201</v>
+        <v>3.1575766776412</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>468</v>
       </c>
       <c r="B468">
-        <v>0.354258410113061</v>
+        <v>0.3542584101130609</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>512</v>
       </c>
       <c r="B512">
-        <v>6.598670278083386</v>
+        <v>6.598670278083385</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4719,7 +4719,7 @@
         <v>547</v>
       </c>
       <c r="B547">
-        <v>7.541421195249202</v>
+        <v>7.541421195249201</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>573</v>
       </c>
       <c r="B573">
-        <v>8.198076164473813</v>
+        <v>8.198076164473811</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>618</v>
       </c>
       <c r="B618">
-        <v>28.50470466938364</v>
+        <v>28.50470466938363</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>620</v>
       </c>
       <c r="B620">
-        <v>18.61115393204621</v>
+        <v>18.6111539320462</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>624</v>
       </c>
       <c r="B624">
-        <v>0.123219666707892</v>
+        <v>0.1232196667078919</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>636</v>
       </c>
       <c r="B636">
-        <v>0.4567570751744799</v>
+        <v>0.4567570751744798</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>638</v>
       </c>
       <c r="B638">
-        <v>0.8428693764796424</v>
+        <v>0.8428693764796423</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>659</v>
       </c>
       <c r="B659">
-        <v>0.3360381836394851</v>
+        <v>0.336038183639485</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>661</v>
       </c>
       <c r="B661">
-        <v>0.4287365531680687</v>
+        <v>0.4287365531680686</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>686</v>
       </c>
       <c r="B686">
-        <v>14.08552164593385</v>
+        <v>14.08552164593384</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>706</v>
       </c>
       <c r="B706">
-        <v>6.43563485927608</v>
+        <v>6.435634859276079</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>712</v>
       </c>
       <c r="B712">
-        <v>35.16676621312947</v>
+        <v>35.16676621312946</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6359,7 +6359,7 @@
         <v>752</v>
       </c>
       <c r="B752">
-        <v>7.664364495967637</v>
+        <v>7.664364495967636</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6375,7 +6375,7 @@
         <v>754</v>
       </c>
       <c r="B754">
-        <v>5.847734355721421</v>
+        <v>5.84773435572142</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>766</v>
       </c>
       <c r="B766">
-        <v>5.685021315056642</v>
+        <v>5.685021315056641</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6575,7 +6575,7 @@
         <v>779</v>
       </c>
       <c r="B779">
-        <v>6.076417687188869</v>
+        <v>6.076417687188868</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6583,7 +6583,7 @@
         <v>780</v>
       </c>
       <c r="B780">
-        <v>7.873324146533176</v>
+        <v>7.873324146533175</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6775,7 +6775,7 @@
         <v>804</v>
       </c>
       <c r="B804">
-        <v>0.11855690648279</v>
+        <v>0.1185569064827899</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6815,7 +6815,7 @@
         <v>809</v>
       </c>
       <c r="B809">
-        <v>0.130360928706953</v>
+        <v>0.1303609287069529</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6959,7 +6959,7 @@
         <v>827</v>
       </c>
       <c r="B827">
-        <v>0.2978012052253394</v>
+        <v>0.2978012052253393</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7127,7 +7127,7 @@
         <v>848</v>
       </c>
       <c r="B848">
-        <v>8.171436007059496</v>
+        <v>8.171436007059494</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>13.03612217779917</v>
+        <v>13.03612217779916</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>878</v>
       </c>
       <c r="B878">
-        <v>21.80838312121829</v>
+        <v>21.80838312121828</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7439,7 +7439,7 @@
         <v>887</v>
       </c>
       <c r="B887">
-        <v>4.823128697457492</v>
+        <v>4.823128697457491</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7599,7 +7599,7 @@
         <v>907</v>
       </c>
       <c r="B907">
-        <v>12.45886015294792</v>
+        <v>12.45886015294791</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7703,7 +7703,7 @@
         <v>920</v>
       </c>
       <c r="B920">
-        <v>8.543812068782602</v>
+        <v>8.5438120687826</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7711,7 +7711,7 @@
         <v>921</v>
       </c>
       <c r="B921">
-        <v>4.784970848223785</v>
+        <v>4.784970848223784</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>0.7595287652155157</v>
+        <v>0.7595287652155156</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8743,7 +8743,7 @@
         <v>1050</v>
       </c>
       <c r="B1050">
-        <v>20.65101628244077</v>
+        <v>20.65101628244076</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -9135,7 +9135,7 @@
         <v>1099</v>
       </c>
       <c r="B1099">
-        <v>24.77889255488196</v>
+        <v>24.77889255488195</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -9255,7 +9255,7 @@
         <v>1114</v>
       </c>
       <c r="B1114">
-        <v>6.576015886794864</v>
+        <v>6.576015886794863</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -9295,7 +9295,7 @@
         <v>1119</v>
       </c>
       <c r="B1119">
-        <v>15.21815328904835</v>
+        <v>15.21815328904834</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -9343,7 +9343,7 @@
         <v>1125</v>
       </c>
       <c r="B1125">
-        <v>7.533801348244007</v>
+        <v>7.533801348244006</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>0.217084165899309</v>
+        <v>0.2170841658993089</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>1141</v>
       </c>
       <c r="B1141">
-        <v>0.3052833088423636</v>
+        <v>0.3052833088423635</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9671,7 +9671,7 @@
         <v>1166</v>
       </c>
       <c r="B1166">
-        <v>2.92575455534969</v>
+        <v>2.925754555349689</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
@@ -9711,7 +9711,7 @@
         <v>1171</v>
       </c>
       <c r="B1171">
-        <v>6.106193704716862</v>
+        <v>6.106193704716861</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -10079,7 +10079,7 @@
         <v>1217</v>
       </c>
       <c r="B1217">
-        <v>28.98038827223487</v>
+        <v>28.98038827223486</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -10423,7 +10423,7 @@
         <v>1260</v>
       </c>
       <c r="B1260">
-        <v>8.812734053858252</v>
+        <v>8.81273405385825</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
@@ -10471,7 +10471,7 @@
         <v>1266</v>
       </c>
       <c r="B1266">
-        <v>14.74346612772857</v>
+        <v>14.74346612772856</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
@@ -10591,7 +10591,7 @@
         <v>1281</v>
       </c>
       <c r="B1281">
-        <v>6.499876030950647</v>
+        <v>6.499876030950646</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
@@ -10855,7 +10855,7 @@
         <v>1314</v>
       </c>
       <c r="B1314">
-        <v>5.621249057043934</v>
+        <v>5.621249057043933</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
@@ -10871,7 +10871,7 @@
         <v>1316</v>
       </c>
       <c r="B1316">
-        <v>2.698498479840523</v>
+        <v>2.698498479840522</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
@@ -10975,7 +10975,7 @@
         <v>1329</v>
       </c>
       <c r="B1329">
-        <v>0.0453571392984231</v>
+        <v>0.045357139298423</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
@@ -11031,7 +11031,7 @@
         <v>1336</v>
       </c>
       <c r="B1336">
-        <v>3.919590685264565</v>
+        <v>3.919590685264564</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -11295,7 +11295,7 @@
         <v>1369</v>
       </c>
       <c r="B1369">
-        <v>5.636752514989119</v>
+        <v>5.636752514989118</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -11487,7 +11487,7 @@
         <v>1393</v>
       </c>
       <c r="B1393">
-        <v>4.829605567411908</v>
+        <v>4.829605567411907</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
@@ -11591,7 +11591,7 @@
         <v>1406</v>
       </c>
       <c r="B1406">
-        <v>28.46569691413781</v>
+        <v>28.4656969141378</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
@@ -11631,7 +11631,7 @@
         <v>1411</v>
       </c>
       <c r="B1411">
-        <v>28.06448266221043</v>
+        <v>28.06448266221042</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
@@ -11831,7 +11831,7 @@
         <v>1436</v>
       </c>
       <c r="B1436">
-        <v>0.6019386063065372</v>
+        <v>0.6019386063065371</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
@@ -11927,7 +11927,7 @@
         <v>1448</v>
       </c>
       <c r="B1448">
-        <v>8.786562810105794</v>
+        <v>8.786562810105792</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -12023,7 +12023,7 @@
         <v>1460</v>
       </c>
       <c r="B1460">
-        <v>6.133214854481438</v>
+        <v>6.133214854481437</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
@@ -12159,7 +12159,7 @@
         <v>1477</v>
       </c>
       <c r="B1477">
-        <v>0.6050217136332545</v>
+        <v>0.6050217136332544</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
@@ -12183,7 +12183,7 @@
         <v>1480</v>
       </c>
       <c r="B1480">
-        <v>0.3915370462307841</v>
+        <v>0.391537046230784</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
@@ -12327,7 +12327,7 @@
         <v>1498</v>
       </c>
       <c r="B1498">
-        <v>0.3973720906105315</v>
+        <v>0.3973720906105314</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
@@ -12335,7 +12335,7 @@
         <v>1499</v>
       </c>
       <c r="B1499">
-        <v>0.4662467154063343</v>
+        <v>0.4662467154063342</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
@@ -12583,7 +12583,7 @@
         <v>1530</v>
       </c>
       <c r="B1530">
-        <v>19.19999226292458</v>
+        <v>19.19999226292457</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
@@ -12615,7 +12615,7 @@
         <v>1534</v>
       </c>
       <c r="B1534">
-        <v>4.716216382553833</v>
+        <v>4.716216382553832</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
@@ -12711,7 +12711,7 @@
         <v>1546</v>
       </c>
       <c r="B1546">
-        <v>7.649154109061112</v>
+        <v>7.649154109061111</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
@@ -13159,7 +13159,7 @@
         <v>1602</v>
       </c>
       <c r="B1602">
-        <v>19.30124830678208</v>
+        <v>19.30124830678207</v>
       </c>
     </row>
     <row r="1603" spans="1:2">
@@ -13287,7 +13287,7 @@
         <v>1618</v>
       </c>
       <c r="B1618">
-        <v>10.63021410011659</v>
+        <v>10.63021410011658</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -13351,7 +13351,7 @@
         <v>1626</v>
       </c>
       <c r="B1626">
-        <v>23.04306209999467</v>
+        <v>23.04306209999466</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13423,7 +13423,7 @@
         <v>1635</v>
       </c>
       <c r="B1635">
-        <v>0.7394299533841207</v>
+        <v>0.7394299533841205</v>
       </c>
     </row>
     <row r="1636" spans="1:2">
@@ -13511,7 +13511,7 @@
         <v>1646</v>
       </c>
       <c r="B1646">
-        <v>5.757790853956255</v>
+        <v>5.757790853956254</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
@@ -13703,7 +13703,7 @@
         <v>1670</v>
       </c>
       <c r="B1670">
-        <v>3.918975236083376</v>
+        <v>3.918975236083375</v>
       </c>
     </row>
     <row r="1671" spans="1:2">
@@ -13735,7 +13735,7 @@
         <v>1674</v>
       </c>
       <c r="B1674">
-        <v>6.631113242063197</v>
+        <v>6.631113242063196</v>
       </c>
     </row>
     <row r="1675" spans="1:2">
@@ -13751,7 +13751,7 @@
         <v>1676</v>
       </c>
       <c r="B1676">
-        <v>3.918975236083376</v>
+        <v>3.918975236083375</v>
       </c>
     </row>
     <row r="1677" spans="1:2">
@@ -13759,7 +13759,7 @@
         <v>1677</v>
       </c>
       <c r="B1677">
-        <v>2.789139490677704</v>
+        <v>2.789139490677703</v>
       </c>
     </row>
     <row r="1678" spans="1:2">
@@ -13951,7 +13951,7 @@
         <v>1701</v>
       </c>
       <c r="B1701">
-        <v>15.43666705547425</v>
+        <v>15.43666705547424</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -13991,7 +13991,7 @@
         <v>1706</v>
       </c>
       <c r="B1706">
-        <v>5.397430704818264</v>
+        <v>5.397430704818263</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -14247,7 +14247,7 @@
         <v>1738</v>
       </c>
       <c r="B1738">
-        <v>19.59320567549651</v>
+        <v>19.5932056754965</v>
       </c>
     </row>
     <row r="1739" spans="1:2">
@@ -14375,7 +14375,7 @@
         <v>1754</v>
       </c>
       <c r="B1754">
-        <v>6.140072716786113</v>
+        <v>6.140072716786112</v>
       </c>
     </row>
     <row r="1755" spans="1:2">
@@ -14471,7 +14471,7 @@
         <v>1766</v>
       </c>
       <c r="B1766">
-        <v>30.83752083002408</v>
+        <v>30.83752083002407</v>
       </c>
     </row>
     <row r="1767" spans="1:2">
@@ -14479,7 +14479,7 @@
         <v>1767</v>
       </c>
       <c r="B1767">
-        <v>36.3106224770247</v>
+        <v>36.31062247702469</v>
       </c>
     </row>
     <row r="1768" spans="1:2">
@@ -14535,7 +14535,7 @@
         <v>1774</v>
       </c>
       <c r="B1774">
-        <v>19.68229927124956</v>
+        <v>19.68229927124955</v>
       </c>
     </row>
     <row r="1775" spans="1:2">
@@ -14583,7 +14583,7 @@
         <v>1780</v>
       </c>
       <c r="B1780">
-        <v>3.918975236083376</v>
+        <v>3.918975236083375</v>
       </c>
     </row>
     <row r="1781" spans="1:2">
@@ -14615,7 +14615,7 @@
         <v>1784</v>
       </c>
       <c r="B1784">
-        <v>10.10948547862311</v>
+        <v>10.1094854786231</v>
       </c>
     </row>
     <row r="1785" spans="1:2">
@@ -14695,7 +14695,7 @@
         <v>1794</v>
       </c>
       <c r="B1794">
-        <v>28.38442831511702</v>
+        <v>28.38442831511701</v>
       </c>
     </row>
     <row r="1795" spans="1:2">
@@ -14847,7 +14847,7 @@
         <v>1813</v>
       </c>
       <c r="B1813">
-        <v>2.773498289344348</v>
+        <v>2.773498289344347</v>
       </c>
     </row>
     <row r="1814" spans="1:2">
@@ -14879,7 +14879,7 @@
         <v>1817</v>
       </c>
       <c r="B1817">
-        <v>8.882103968709393</v>
+        <v>8.882103968709391</v>
       </c>
     </row>
     <row r="1818" spans="1:2">
@@ -15063,7 +15063,7 @@
         <v>1840</v>
       </c>
       <c r="B1840">
-        <v>7.885545208845353</v>
+        <v>7.885545208845352</v>
       </c>
     </row>
     <row r="1841" spans="1:2">
@@ -15079,7 +15079,7 @@
         <v>1842</v>
       </c>
       <c r="B1842">
-        <v>9.878047279392243</v>
+        <v>9.87804727939224</v>
       </c>
     </row>
     <row r="1843" spans="1:2">
@@ -15383,7 +15383,7 @@
         <v>1880</v>
       </c>
       <c r="B1880">
-        <v>14.92505294328314</v>
+        <v>14.92505294328313</v>
       </c>
     </row>
     <row r="1881" spans="1:2">
@@ -15479,7 +15479,7 @@
         <v>1892</v>
       </c>
       <c r="B1892">
-        <v>27.49601276851902</v>
+        <v>27.49601276851901</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -15567,7 +15567,7 @@
         <v>1903</v>
       </c>
       <c r="B1903">
-        <v>8.46368644681259</v>
+        <v>8.463686446812588</v>
       </c>
     </row>
     <row r="1904" spans="1:2">
@@ -15623,7 +15623,7 @@
         <v>1910</v>
       </c>
       <c r="B1910">
-        <v>20.30120669069459</v>
+        <v>20.30120669069458</v>
       </c>
     </row>
     <row r="1911" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>22.40941320730498</v>
+        <v>22.40941320730497</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15655,7 +15655,7 @@
         <v>1914</v>
       </c>
       <c r="B1914">
-        <v>21.58098930232095</v>
+        <v>21.58098930232094</v>
       </c>
     </row>
     <row r="1915" spans="1:2">
@@ -15695,7 +15695,7 @@
         <v>1919</v>
       </c>
       <c r="B1919">
-        <v>8.826156707428941</v>
+        <v>8.82615670742894</v>
       </c>
     </row>
     <row r="1920" spans="1:2">
@@ -15959,7 +15959,7 @@
         <v>1952</v>
       </c>
       <c r="B1952">
-        <v>5.933662784256928</v>
+        <v>5.933662784256927</v>
       </c>
     </row>
     <row r="1953" spans="1:2">
@@ -15967,7 +15967,7 @@
         <v>1953</v>
       </c>
       <c r="B1953">
-        <v>8.17952476772655</v>
+        <v>8.179524767726548</v>
       </c>
     </row>
     <row r="1954" spans="1:2">
@@ -16071,7 +16071,7 @@
         <v>1966</v>
       </c>
       <c r="B1966">
-        <v>19.67793251277351</v>
+        <v>19.6779325127735</v>
       </c>
     </row>
     <row r="1967" spans="1:2">
@@ -16263,7 +16263,7 @@
         <v>1990</v>
       </c>
       <c r="B1990">
-        <v>14.9970018832745</v>
+        <v>14.99700188327449</v>
       </c>
     </row>
     <row r="1991" spans="1:2">
@@ -16303,7 +16303,7 @@
         <v>1995</v>
       </c>
       <c r="B1995">
-        <v>7.479202213741398</v>
+        <v>7.479202213741397</v>
       </c>
     </row>
     <row r="1996" spans="1:2">
@@ -16359,7 +16359,7 @@
         <v>2002</v>
       </c>
       <c r="B2002">
-        <v>3.919063157394974</v>
+        <v>3.919063157394973</v>
       </c>
     </row>
     <row r="2003" spans="1:2">
@@ -16367,7 +16367,7 @@
         <v>2003</v>
       </c>
       <c r="B2003">
-        <v>5.241927211704555</v>
+        <v>5.241927211704554</v>
       </c>
     </row>
     <row r="2004" spans="1:2">
@@ -16383,7 +16383,7 @@
         <v>2005</v>
       </c>
       <c r="B2005">
-        <v>6.74444381271354</v>
+        <v>6.744443812713539</v>
       </c>
     </row>
     <row r="2006" spans="1:2">
@@ -16391,7 +16391,7 @@
         <v>2006</v>
       </c>
       <c r="B2006">
-        <v>7.613545977863759</v>
+        <v>7.613545977863758</v>
       </c>
     </row>
     <row r="2007" spans="1:2">
@@ -16399,7 +16399,7 @@
         <v>2007</v>
       </c>
       <c r="B2007">
-        <v>7.802635412008059</v>
+        <v>7.802635412008058</v>
       </c>
     </row>
     <row r="2008" spans="1:2">
@@ -16431,7 +16431,7 @@
         <v>2011</v>
       </c>
       <c r="B2011">
-        <v>8.322924426943546</v>
+        <v>8.322924426943544</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
@@ -16543,7 +16543,7 @@
         <v>2025</v>
       </c>
       <c r="B2025">
-        <v>16.29932165777392</v>
+        <v>16.29932165777391</v>
       </c>
     </row>
     <row r="2026" spans="1:2">
@@ -16719,7 +16719,7 @@
         <v>2047</v>
       </c>
       <c r="B2047">
-        <v>16.33510563159447</v>
+        <v>16.33510563159446</v>
       </c>
     </row>
     <row r="2048" spans="1:2">
@@ -16879,7 +16879,7 @@
         <v>2067</v>
       </c>
       <c r="B2067">
-        <v>9.525306977259447</v>
+        <v>9.525306977259444</v>
       </c>
     </row>
     <row r="2068" spans="1:2">
@@ -16983,7 +16983,7 @@
         <v>2080</v>
       </c>
       <c r="B2080">
-        <v>41.34470370811063</v>
+        <v>41.34470370811062</v>
       </c>
     </row>
     <row r="2081" spans="1:2">
@@ -17007,7 +17007,7 @@
         <v>2083</v>
       </c>
       <c r="B2083">
-        <v>33.28642242907828</v>
+        <v>33.28642242907827</v>
       </c>
     </row>
     <row r="2084" spans="1:2">
@@ -17111,7 +17111,7 @@
         <v>2096</v>
       </c>
       <c r="B2096">
-        <v>7.49488151430978</v>
+        <v>7.494881514309779</v>
       </c>
     </row>
     <row r="2097" spans="1:2">
@@ -17239,7 +17239,7 @@
         <v>2112</v>
       </c>
       <c r="B2112">
-        <v>4.69546695301661</v>
+        <v>4.695466953016609</v>
       </c>
     </row>
     <row r="2113" spans="1:2">
@@ -17247,7 +17247,7 @@
         <v>2113</v>
       </c>
       <c r="B2113">
-        <v>1.806724339139462</v>
+        <v>1.806724339139461</v>
       </c>
     </row>
     <row r="2114" spans="1:2">
@@ -17295,7 +17295,7 @@
         <v>2119</v>
       </c>
       <c r="B2119">
-        <v>5.67359154454885</v>
+        <v>5.673591544548849</v>
       </c>
     </row>
     <row r="2120" spans="1:2">
@@ -17303,7 +17303,7 @@
         <v>2120</v>
       </c>
       <c r="B2120">
-        <v>7.081973727939811</v>
+        <v>7.08197372793981</v>
       </c>
     </row>
     <row r="2121" spans="1:2">
@@ -17375,7 +17375,7 @@
         <v>2129</v>
       </c>
       <c r="B2129">
-        <v>41.47717181758556</v>
+        <v>41.47717181758555</v>
       </c>
     </row>
     <row r="2130" spans="1:2">
@@ -17415,7 +17415,7 @@
         <v>2134</v>
       </c>
       <c r="B2134">
-        <v>18.92708451172314</v>
+        <v>18.92708451172313</v>
       </c>
     </row>
     <row r="2135" spans="1:2">
@@ -17527,7 +17527,7 @@
         <v>2148</v>
       </c>
       <c r="B2148">
-        <v>7.999520535780751</v>
+        <v>7.99952053578075</v>
       </c>
     </row>
     <row r="2149" spans="1:2">
@@ -17575,7 +17575,7 @@
         <v>2154</v>
       </c>
       <c r="B2154">
-        <v>20.84154176467451</v>
+        <v>20.8415417646745</v>
       </c>
     </row>
     <row r="2155" spans="1:2">
@@ -17879,7 +17879,7 @@
         <v>2192</v>
       </c>
       <c r="B2192">
-        <v>9.669468621176962</v>
+        <v>9.669468621176961</v>
       </c>
     </row>
     <row r="2193" spans="1:2">
@@ -18399,7 +18399,7 @@
         <v>2257</v>
       </c>
       <c r="B2257">
-        <v>0.7028165885241588</v>
+        <v>0.7028165885241587</v>
       </c>
     </row>
     <row r="2258" spans="1:2">
@@ -18519,7 +18519,7 @@
         <v>2272</v>
       </c>
       <c r="B2272">
-        <v>30.59309958378052</v>
+        <v>30.59309958378051</v>
       </c>
     </row>
     <row r="2273" spans="1:2">
@@ -18615,7 +18615,7 @@
         <v>2284</v>
       </c>
       <c r="B2284">
-        <v>6.894701334235212</v>
+        <v>6.894701334235211</v>
       </c>
     </row>
     <row r="2285" spans="1:2">
@@ -18663,7 +18663,7 @@
         <v>2290</v>
       </c>
       <c r="B2290">
-        <v>19.54596262406431</v>
+        <v>19.5459626240643</v>
       </c>
     </row>
     <row r="2291" spans="1:2">
@@ -18711,7 +18711,7 @@
         <v>2296</v>
       </c>
       <c r="B2296">
-        <v>28.90521555081823</v>
+        <v>28.90521555081822</v>
       </c>
     </row>
     <row r="2297" spans="1:2">
@@ -18735,7 +18735,7 @@
         <v>2299</v>
       </c>
       <c r="B2299">
-        <v>23.53574382308826</v>
+        <v>23.53574382308825</v>
       </c>
     </row>
     <row r="2300" spans="1:2">
@@ -18975,7 +18975,7 @@
         <v>2329</v>
       </c>
       <c r="B2329">
-        <v>3.918975236083376</v>
+        <v>3.918975236083375</v>
       </c>
     </row>
     <row r="2330" spans="1:2">
@@ -19047,7 +19047,7 @@
         <v>2338</v>
       </c>
       <c r="B2338">
-        <v>3.550790090213128</v>
+        <v>3.550790090213127</v>
       </c>
     </row>
     <row r="2339" spans="1:2">
@@ -19495,7 +19495,7 @@
         <v>2394</v>
       </c>
       <c r="B2394">
-        <v>59.00223378745668</v>
+        <v>59.00223378745667</v>
       </c>
     </row>
     <row r="2395" spans="1:2">
@@ -19631,7 +19631,7 @@
         <v>2411</v>
       </c>
       <c r="B2411">
-        <v>21.90565339894999</v>
+        <v>21.90565339894998</v>
       </c>
     </row>
     <row r="2412" spans="1:2">
@@ -19671,7 +19671,7 @@
         <v>2416</v>
       </c>
       <c r="B2416">
-        <v>47.75211582636362</v>
+        <v>47.75211582636361</v>
       </c>
     </row>
     <row r="2417" spans="1:2">
@@ -19703,7 +19703,7 @@
         <v>2420</v>
       </c>
       <c r="B2420">
-        <v>35.72448039970201</v>
+        <v>35.724480399702</v>
       </c>
     </row>
     <row r="2421" spans="1:2">
@@ -19783,7 +19783,7 @@
         <v>2430</v>
       </c>
       <c r="B2430">
-        <v>6.551456533755044</v>
+        <v>6.551456533755043</v>
       </c>
     </row>
     <row r="2431" spans="1:2">
@@ -19919,7 +19919,7 @@
         <v>2447</v>
       </c>
       <c r="B2447">
-        <v>27.91571980298593</v>
+        <v>27.91571980298592</v>
       </c>
     </row>
     <row r="2448" spans="1:2">
@@ -20039,7 +20039,7 @@
         <v>2462</v>
       </c>
       <c r="B2462">
-        <v>52.01923014927281</v>
+        <v>52.0192301492728</v>
       </c>
     </row>
     <row r="2463" spans="1:2">
@@ -20191,7 +20191,7 @@
         <v>2481</v>
       </c>
       <c r="B2481">
-        <v>10.98441975744269</v>
+        <v>10.98441975744268</v>
       </c>
     </row>
     <row r="2482" spans="1:2">
@@ -20367,7 +20367,7 @@
         <v>2503</v>
       </c>
       <c r="B2503">
-        <v>6.622350418007224</v>
+        <v>6.622350418007223</v>
       </c>
     </row>
     <row r="2504" spans="1:2">
@@ -20423,7 +20423,7 @@
         <v>2510</v>
       </c>
       <c r="B2510">
-        <v>45.07696338546286</v>
+        <v>45.07696338546285</v>
       </c>
     </row>
     <row r="2511" spans="1:2">
@@ -20439,7 +20439,7 @@
         <v>2512</v>
       </c>
       <c r="B2512">
-        <v>52.68948361469131</v>
+        <v>52.6894836146913</v>
       </c>
     </row>
     <row r="2513" spans="1:2">
@@ -20455,7 +20455,7 @@
         <v>2514</v>
       </c>
       <c r="B2514">
-        <v>54.20026481899054</v>
+        <v>54.20026481899053</v>
       </c>
     </row>
     <row r="2515" spans="1:2">
@@ -20535,7 +20535,7 @@
         <v>2524</v>
       </c>
       <c r="B2524">
-        <v>13.40588990727819</v>
+        <v>13.40588990727818</v>
       </c>
     </row>
     <row r="2525" spans="1:2">
@@ -20615,7 +20615,7 @@
         <v>2534</v>
       </c>
       <c r="B2534">
-        <v>71.59725474496666</v>
+        <v>71.59725474496665</v>
       </c>
     </row>
     <row r="2535" spans="1:2">
@@ -20719,7 +20719,7 @@
         <v>2547</v>
       </c>
       <c r="B2547">
-        <v>42.87599988511616</v>
+        <v>42.87599988511615</v>
       </c>
     </row>
     <row r="2548" spans="1:2">
@@ -20735,7 +20735,7 @@
         <v>2549</v>
       </c>
       <c r="B2549">
-        <v>38.08604682923513</v>
+        <v>38.08604682923512</v>
       </c>
     </row>
     <row r="2550" spans="1:2">
@@ -20759,7 +20759,7 @@
         <v>2552</v>
       </c>
       <c r="B2552">
-        <v>52.67189935237163</v>
+        <v>52.67189935237162</v>
       </c>
     </row>
     <row r="2553" spans="1:2">
@@ -20767,7 +20767,7 @@
         <v>2553</v>
       </c>
       <c r="B2553">
-        <v>58.35513293409243</v>
+        <v>58.35513293409242</v>
       </c>
     </row>
     <row r="2554" spans="1:2">
@@ -20799,7 +20799,7 @@
         <v>2557</v>
       </c>
       <c r="B2557">
-        <v>81.76740592859267</v>
+        <v>81.76740592859265</v>
       </c>
     </row>
     <row r="2558" spans="1:2">
@@ -20967,7 +20967,7 @@
         <v>2578</v>
       </c>
       <c r="B2578">
-        <v>57.9732613707167</v>
+        <v>57.97326137071669</v>
       </c>
     </row>
     <row r="2579" spans="1:2">
@@ -20983,7 +20983,7 @@
         <v>2580</v>
       </c>
       <c r="B2580">
-        <v>67.0569982140251</v>
+        <v>67.05699821402509</v>
       </c>
     </row>
     <row r="2581" spans="1:2">
@@ -21047,7 +21047,7 @@
         <v>2588</v>
       </c>
       <c r="B2588">
-        <v>58.52892406001861</v>
+        <v>58.5289240600186</v>
       </c>
     </row>
     <row r="2589" spans="1:2">
@@ -21135,7 +21135,7 @@
         <v>2599</v>
       </c>
       <c r="B2599">
-        <v>27.70274507919073</v>
+        <v>27.70274507919072</v>
       </c>
     </row>
     <row r="2600" spans="1:2">
@@ -21279,7 +21279,7 @@
         <v>2617</v>
       </c>
       <c r="B2617">
-        <v>21.40895660262674</v>
+        <v>21.40895660262673</v>
       </c>
     </row>
     <row r="2618" spans="1:2">
@@ -21319,7 +21319,7 @@
         <v>2622</v>
       </c>
       <c r="B2622">
-        <v>12.49235817266691</v>
+        <v>12.4923581726669</v>
       </c>
     </row>
     <row r="2623" spans="1:2">
@@ -21527,7 +21527,7 @@
         <v>2648</v>
       </c>
       <c r="B2648">
-        <v>5.118690839947459</v>
+        <v>5.118690839947458</v>
       </c>
     </row>
     <row r="2649" spans="1:2">
@@ -21535,7 +21535,7 @@
         <v>2649</v>
       </c>
       <c r="B2649">
-        <v>7.000793050230619</v>
+        <v>7.000793050230618</v>
       </c>
     </row>
     <row r="2650" spans="1:2">
@@ -21543,7 +21543,7 @@
         <v>2650</v>
       </c>
       <c r="B2650">
-        <v>9.140768467431895</v>
+        <v>9.140768467431894</v>
       </c>
     </row>
     <row r="2651" spans="1:2">
@@ -21647,7 +21647,7 @@
         <v>2663</v>
       </c>
       <c r="B2663">
-        <v>15.2779104738314</v>
+        <v>15.27791047383139</v>
       </c>
     </row>
     <row r="2664" spans="1:2">
@@ -21759,7 +21759,7 @@
         <v>2677</v>
       </c>
       <c r="B2677">
-        <v>24.22302471585298</v>
+        <v>24.22302471585297</v>
       </c>
     </row>
     <row r="2678" spans="1:2">
@@ -21887,7 +21887,7 @@
         <v>2693</v>
       </c>
       <c r="B2693">
-        <v>0.9432755143250194</v>
+        <v>0.9432755143250192</v>
       </c>
     </row>
     <row r="2694" spans="1:2">
@@ -21935,7 +21935,7 @@
         <v>2699</v>
       </c>
       <c r="B2699">
-        <v>34.10409062694343</v>
+        <v>34.10409062694342</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -21991,7 +21991,7 @@
         <v>2706</v>
       </c>
       <c r="B2706">
-        <v>71.50259279947905</v>
+        <v>71.50259279947903</v>
       </c>
     </row>
     <row r="2707" spans="1:2">
@@ -22063,7 +22063,7 @@
         <v>2715</v>
       </c>
       <c r="B2715">
-        <v>21.17174490393425</v>
+        <v>21.17174490393424</v>
       </c>
     </row>
     <row r="2716" spans="1:2">
@@ -22175,7 +22175,7 @@
         <v>2729</v>
       </c>
       <c r="B2729">
-        <v>87.21647575042306</v>
+        <v>87.21647575042304</v>
       </c>
     </row>
     <row r="2730" spans="1:2">
@@ -22191,7 +22191,7 @@
         <v>2731</v>
       </c>
       <c r="B2731">
-        <v>79.46650520406244</v>
+        <v>79.46650520406243</v>
       </c>
     </row>
     <row r="2732" spans="1:2">
@@ -22279,7 +22279,7 @@
         <v>2742</v>
       </c>
       <c r="B2742">
-        <v>34.46339572034224</v>
+        <v>34.46339572034223</v>
       </c>
     </row>
     <row r="2743" spans="1:2">
@@ -22327,7 +22327,7 @@
         <v>2748</v>
       </c>
       <c r="B2748">
-        <v>78.48823407701087</v>
+        <v>78.48823407701086</v>
       </c>
     </row>
     <row r="2749" spans="1:2">
@@ -22335,7 +22335,7 @@
         <v>2749</v>
       </c>
       <c r="B2749">
-        <v>89.60881463901562</v>
+        <v>89.60881463901561</v>
       </c>
     </row>
     <row r="2750" spans="1:2">
@@ -22359,7 +22359,7 @@
         <v>2752</v>
       </c>
       <c r="B2752">
-        <v>140.2843140760262</v>
+        <v>140.2843140760261</v>
       </c>
     </row>
     <row r="2753" spans="1:2">
@@ -22375,7 +22375,7 @@
         <v>2754</v>
       </c>
       <c r="B2754">
-        <v>87.84364777315834</v>
+        <v>87.84364777315832</v>
       </c>
     </row>
     <row r="2755" spans="1:2">
@@ -22391,7 +22391,7 @@
         <v>2756</v>
       </c>
       <c r="B2756">
-        <v>80.75806927144299</v>
+        <v>80.75806927144298</v>
       </c>
     </row>
     <row r="2757" spans="1:2">
@@ -22415,7 +22415,7 @@
         <v>2759</v>
       </c>
       <c r="B2759">
-        <v>65.16141473596352</v>
+        <v>65.1614147359635</v>
       </c>
     </row>
     <row r="2760" spans="1:2">
@@ -22479,7 +22479,7 @@
         <v>2767</v>
       </c>
       <c r="B2767">
-        <v>46.75596736595371</v>
+        <v>46.7559673659537</v>
       </c>
     </row>
     <row r="2768" spans="1:2">
@@ -22495,7 +22495,7 @@
         <v>2769</v>
       </c>
       <c r="B2769">
-        <v>60.06490937364272</v>
+        <v>60.06490937364271</v>
       </c>
     </row>
     <row r="2770" spans="1:2">
@@ -22567,7 +22567,7 @@
         <v>2778</v>
       </c>
       <c r="B2778">
-        <v>83.80278429209571</v>
+        <v>83.80278429209569</v>
       </c>
     </row>
     <row r="2779" spans="1:2">
@@ -22679,7 +22679,7 @@
         <v>2792</v>
       </c>
       <c r="B2792">
-        <v>48.02467189231867</v>
+        <v>48.02467189231866</v>
       </c>
     </row>
     <row r="2793" spans="1:2">
@@ -22711,7 +22711,7 @@
         <v>2796</v>
       </c>
       <c r="B2796">
-        <v>82.12114267225691</v>
+        <v>82.12114267225689</v>
       </c>
     </row>
     <row r="2797" spans="1:2">
@@ -22799,7 +22799,7 @@
         <v>2807</v>
       </c>
       <c r="B2807">
-        <v>52.91338988822857</v>
+        <v>52.91338988822856</v>
       </c>
     </row>
     <row r="2808" spans="1:2">
@@ -22855,7 +22855,7 @@
         <v>2814</v>
       </c>
       <c r="B2814">
-        <v>19.62535556843766</v>
+        <v>19.62535556843765</v>
       </c>
     </row>
     <row r="2815" spans="1:2">
@@ -22943,7 +22943,7 @@
         <v>2825</v>
       </c>
       <c r="B2825">
-        <v>49.97593886772591</v>
+        <v>49.9759388677259</v>
       </c>
     </row>
     <row r="2826" spans="1:2">
@@ -23023,7 +23023,7 @@
         <v>2835</v>
       </c>
       <c r="B2835">
-        <v>9.908321517685961</v>
+        <v>9.908321517685955</v>
       </c>
     </row>
     <row r="2836" spans="1:2">
@@ -23303,7 +23303,7 @@
         <v>2870</v>
       </c>
       <c r="B2870">
-        <v>39.00072154089719</v>
+        <v>39.00072154089718</v>
       </c>
     </row>
     <row r="2871" spans="1:2">
@@ -23335,7 +23335,7 @@
         <v>2874</v>
       </c>
       <c r="B2874">
-        <v>44.10103682672058</v>
+        <v>44.10103682672057</v>
       </c>
     </row>
     <row r="2875" spans="1:2">
@@ -23423,7 +23423,7 @@
         <v>2885</v>
       </c>
       <c r="B2885">
-        <v>6.929547480732045</v>
+        <v>6.929547480732044</v>
       </c>
     </row>
     <row r="2886" spans="1:2">
@@ -23495,7 +23495,7 @@
         <v>2894</v>
       </c>
       <c r="B2894">
-        <v>51.49228842175971</v>
+        <v>51.4922884217597</v>
       </c>
     </row>
     <row r="2895" spans="1:2">
@@ -23527,7 +23527,7 @@
         <v>2898</v>
       </c>
       <c r="B2898">
-        <v>58.85745669435798</v>
+        <v>58.85745669435797</v>
       </c>
     </row>
     <row r="2899" spans="1:2">
@@ -23567,7 +23567,7 @@
         <v>2903</v>
       </c>
       <c r="B2903">
-        <v>27.95349665986938</v>
+        <v>27.95349665986937</v>
       </c>
     </row>
     <row r="2904" spans="1:2">
@@ -23711,7 +23711,7 @@
         <v>2921</v>
       </c>
       <c r="B2921">
-        <v>68.55253972431395</v>
+        <v>68.55253972431393</v>
       </c>
     </row>
     <row r="2922" spans="1:2">
@@ -23839,7 +23839,7 @@
         <v>2937</v>
       </c>
       <c r="B2937">
-        <v>24.24790644703533</v>
+        <v>24.24790644703532</v>
       </c>
     </row>
     <row r="2938" spans="1:2">
@@ -23879,7 +23879,7 @@
         <v>2942</v>
       </c>
       <c r="B2942">
-        <v>89.07689070384528</v>
+        <v>89.07689070384527</v>
       </c>
     </row>
     <row r="2943" spans="1:2">
@@ -23895,7 +23895,7 @@
         <v>2944</v>
       </c>
       <c r="B2944">
-        <v>144.3656213604241</v>
+        <v>144.365621360424</v>
       </c>
     </row>
     <row r="2945" spans="1:2">
@@ -23959,7 +23959,7 @@
         <v>2952</v>
       </c>
       <c r="B2952">
-        <v>49.49442315120532</v>
+        <v>49.49442315120531</v>
       </c>
     </row>
     <row r="2953" spans="1:2">
@@ -24135,7 +24135,7 @@
         <v>2974</v>
       </c>
       <c r="B2974">
-        <v>95.94266592656462</v>
+        <v>95.9426659265646</v>
       </c>
     </row>
     <row r="2975" spans="1:2">
@@ -24351,7 +24351,7 @@
         <v>3001</v>
       </c>
       <c r="B3001">
-        <v>84.55714914561001</v>
+        <v>84.55714914561</v>
       </c>
     </row>
     <row r="3002" spans="1:2">
@@ -24431,7 +24431,7 @@
         <v>3011</v>
       </c>
       <c r="B3011">
-        <v>82.46286350333604</v>
+        <v>82.46286350333602</v>
       </c>
     </row>
     <row r="3012" spans="1:2">
@@ -24439,7 +24439,7 @@
         <v>3012</v>
       </c>
       <c r="B3012">
-        <v>90.38310832315889</v>
+        <v>90.38310832315888</v>
       </c>
     </row>
     <row r="3013" spans="1:2">
@@ -24487,7 +24487,7 @@
         <v>3018</v>
       </c>
       <c r="B3018">
-        <v>110.5631008322632</v>
+        <v>110.5631008322631</v>
       </c>
     </row>
     <row r="3019" spans="1:2">
@@ -24559,7 +24559,7 @@
         <v>3027</v>
       </c>
       <c r="B3027">
-        <v>62.84703274365487</v>
+        <v>62.84703274365486</v>
       </c>
     </row>
     <row r="3028" spans="1:2">
@@ -24567,7 +24567,7 @@
         <v>3028</v>
       </c>
       <c r="B3028">
-        <v>57.8079693049117</v>
+        <v>57.80796930491169</v>
       </c>
     </row>
     <row r="3029" spans="1:2">
@@ -24623,7 +24623,7 @@
         <v>3035</v>
       </c>
       <c r="B3035">
-        <v>88.56694709657454</v>
+        <v>88.56694709657452</v>
       </c>
     </row>
     <row r="3036" spans="1:2">
@@ -24743,7 +24743,7 @@
         <v>3050</v>
       </c>
       <c r="B3050">
-        <v>69.04196835887839</v>
+        <v>69.04196835887838</v>
       </c>
     </row>
     <row r="3051" spans="1:2">
@@ -24799,7 +24799,7 @@
         <v>3057</v>
       </c>
       <c r="B3057">
-        <v>84.19491334182459</v>
+        <v>84.19491334182457</v>
       </c>
     </row>
     <row r="3058" spans="1:2">
@@ -25031,7 +25031,7 @@
         <v>3086</v>
       </c>
       <c r="B3086">
-        <v>61.87608839256984</v>
+        <v>61.87608839256983</v>
       </c>
     </row>
     <row r="3087" spans="1:2">
@@ -25095,7 +25095,7 @@
         <v>3094</v>
       </c>
       <c r="B3094">
-        <v>44.004616455001</v>
+        <v>44.00461645500099</v>
       </c>
     </row>
     <row r="3095" spans="1:2">
@@ -25271,7 +25271,7 @@
         <v>3116</v>
       </c>
       <c r="B3116">
-        <v>50.72532151358297</v>
+        <v>50.72532151358296</v>
       </c>
     </row>
     <row r="3117" spans="1:2">
@@ -25311,7 +25311,7 @@
         <v>3121</v>
       </c>
       <c r="B3121">
-        <v>30.24756882919879</v>
+        <v>30.24756882919878</v>
       </c>
     </row>
     <row r="3122" spans="1:2">
@@ -25383,7 +25383,7 @@
         <v>3130</v>
       </c>
       <c r="B3130">
-        <v>37.65581854448028</v>
+        <v>37.65581854448027</v>
       </c>
     </row>
     <row r="3131" spans="1:2">
@@ -25487,7 +25487,7 @@
         <v>3143</v>
       </c>
       <c r="B3143">
-        <v>34.79456599402956</v>
+        <v>34.79456599402955</v>
       </c>
     </row>
     <row r="3144" spans="1:2">
@@ -25503,7 +25503,7 @@
         <v>3145</v>
       </c>
       <c r="B3145">
-        <v>23.84279435029375</v>
+        <v>23.84279435029374</v>
       </c>
     </row>
     <row r="3146" spans="1:2">
@@ -25519,7 +25519,7 @@
         <v>3147</v>
       </c>
       <c r="B3147">
-        <v>18.84939137937402</v>
+        <v>18.84939137937401</v>
       </c>
     </row>
     <row r="3148" spans="1:2">
@@ -25599,7 +25599,7 @@
         <v>3157</v>
       </c>
       <c r="B3157">
-        <v>33.89806168676451</v>
+        <v>33.8980616867645</v>
       </c>
     </row>
     <row r="3158" spans="1:2">
@@ -25767,7 +25767,7 @@
         <v>3178</v>
       </c>
       <c r="B3178">
-        <v>14.43383657538286</v>
+        <v>14.43383657538285</v>
       </c>
     </row>
     <row r="3179" spans="1:2">
@@ -25831,7 +25831,7 @@
         <v>3186</v>
       </c>
       <c r="B3186">
-        <v>49.15592610155147</v>
+        <v>49.15592610155146</v>
       </c>
     </row>
     <row r="3187" spans="1:2">
@@ -25839,7 +25839,7 @@
         <v>3187</v>
       </c>
       <c r="B3187">
-        <v>48.06042655903536</v>
+        <v>48.06042655903535</v>
       </c>
     </row>
     <row r="3188" spans="1:2">
@@ -25855,7 +25855,7 @@
         <v>3189</v>
       </c>
       <c r="B3189">
-        <v>40.91681999166507</v>
+        <v>40.91681999166506</v>
       </c>
     </row>
     <row r="3190" spans="1:2">
@@ -25943,7 +25943,7 @@
         <v>3200</v>
       </c>
       <c r="B3200">
-        <v>19.42823598783404</v>
+        <v>19.42823598783403</v>
       </c>
     </row>
     <row r="3201" spans="1:2">
@@ -25959,7 +25959,7 @@
         <v>3202</v>
       </c>
       <c r="B3202">
-        <v>29.71769639129908</v>
+        <v>29.71769639129907</v>
       </c>
     </row>
     <row r="3203" spans="1:2">
@@ -25975,7 +25975,7 @@
         <v>3204</v>
       </c>
       <c r="B3204">
-        <v>42.03254143584881</v>
+        <v>42.0325414358488</v>
       </c>
     </row>
     <row r="3205" spans="1:2">
@@ -26047,7 +26047,7 @@
         <v>3213</v>
       </c>
       <c r="B3213">
-        <v>53.84623500428764</v>
+        <v>53.84623500428763</v>
       </c>
     </row>
     <row r="3214" spans="1:2">
@@ -26063,7 +26063,7 @@
         <v>3215</v>
       </c>
       <c r="B3215">
-        <v>40.94202410098994</v>
+        <v>40.94202410098993</v>
       </c>
     </row>
     <row r="3216" spans="1:2">
@@ -26191,7 +26191,7 @@
         <v>3231</v>
       </c>
       <c r="B3231">
-        <v>87.68538941228121</v>
+        <v>87.6853894122812</v>
       </c>
     </row>
     <row r="3232" spans="1:2">
@@ -26223,7 +26223,7 @@
         <v>3235</v>
       </c>
       <c r="B3235">
-        <v>67.56899331856647</v>
+        <v>67.56899331856646</v>
       </c>
     </row>
     <row r="3236" spans="1:2">
@@ -26263,7 +26263,7 @@
         <v>3240</v>
       </c>
       <c r="B3240">
-        <v>42.00968189483322</v>
+        <v>42.00968189483321</v>
       </c>
     </row>
     <row r="3241" spans="1:2">
@@ -26303,7 +26303,7 @@
         <v>3245</v>
       </c>
       <c r="B3245">
-        <v>20.32670387105813</v>
+        <v>20.32670387105812</v>
       </c>
     </row>
     <row r="3246" spans="1:2">
@@ -26359,7 +26359,7 @@
         <v>3252</v>
       </c>
       <c r="B3252">
-        <v>57.89413219027814</v>
+        <v>57.89413219027813</v>
       </c>
     </row>
     <row r="3253" spans="1:2">
@@ -26471,7 +26471,7 @@
         <v>3266</v>
       </c>
       <c r="B3266">
-        <v>40.46080145550801</v>
+        <v>40.460801455508</v>
       </c>
     </row>
     <row r="3267" spans="1:2">
@@ -26639,7 +26639,7 @@
         <v>3287</v>
       </c>
       <c r="B3287">
-        <v>66.18599108712358</v>
+        <v>66.18599108712357</v>
       </c>
     </row>
     <row r="3288" spans="1:2">
@@ -26647,7 +26647,7 @@
         <v>3288</v>
       </c>
       <c r="B3288">
-        <v>61.32599405300249</v>
+        <v>61.32599405300248</v>
       </c>
     </row>
     <row r="3289" spans="1:2">
@@ -26655,7 +26655,7 @@
         <v>3289</v>
       </c>
       <c r="B3289">
-        <v>57.10196117277652</v>
+        <v>57.10196117277651</v>
       </c>
     </row>
     <row r="3290" spans="1:2">
@@ -26831,7 +26831,7 @@
         <v>3311</v>
       </c>
       <c r="B3311">
-        <v>79.13328343310449</v>
+        <v>79.13328343310448</v>
       </c>
     </row>
     <row r="3312" spans="1:2">
@@ -26855,7 +26855,7 @@
         <v>3314</v>
       </c>
       <c r="B3314">
-        <v>60.0165526522636</v>
+        <v>60.01655265226359</v>
       </c>
     </row>
     <row r="3315" spans="1:2">
@@ -26879,7 +26879,7 @@
         <v>3317</v>
       </c>
       <c r="B3317">
-        <v>46.18037584602283</v>
+        <v>46.18037584602282</v>
       </c>
     </row>
     <row r="3318" spans="1:2">
@@ -26959,7 +26959,7 @@
         <v>3327</v>
       </c>
       <c r="B3327">
-        <v>79.36510262468562</v>
+        <v>79.3651026246856</v>
       </c>
     </row>
     <row r="3328" spans="1:2">
@@ -26967,7 +26967,7 @@
         <v>3328</v>
       </c>
       <c r="B3328">
-        <v>82.80399819233784</v>
+        <v>82.80399819233783</v>
       </c>
     </row>
     <row r="3329" spans="1:2">
@@ -26999,7 +26999,7 @@
         <v>3332</v>
       </c>
       <c r="B3332">
-        <v>74.96522712126284</v>
+        <v>74.96522712126283</v>
       </c>
     </row>
     <row r="3333" spans="1:2">
@@ -27015,7 +27015,7 @@
         <v>3334</v>
       </c>
       <c r="B3334">
-        <v>61.40014102578381</v>
+        <v>61.4001410257838</v>
       </c>
     </row>
     <row r="3335" spans="1:2">
@@ -27023,7 +27023,7 @@
         <v>3335</v>
       </c>
       <c r="B3335">
-        <v>53.04116886108492</v>
+        <v>53.04116886108491</v>
       </c>
     </row>
     <row r="3336" spans="1:2">
@@ -27071,7 +27071,7 @@
         <v>3341</v>
       </c>
       <c r="B3341">
-        <v>19.1716816005899</v>
+        <v>19.17168160058989</v>
       </c>
     </row>
     <row r="3342" spans="1:2">
@@ -27119,7 +27119,7 @@
         <v>3347</v>
       </c>
       <c r="B3347">
-        <v>34.24945386211946</v>
+        <v>34.24945386211945</v>
       </c>
     </row>
     <row r="3348" spans="1:2">
@@ -27143,7 +27143,7 @@
         <v>3350</v>
       </c>
       <c r="B3350">
-        <v>54.03233511383759</v>
+        <v>54.03233511383758</v>
       </c>
     </row>
     <row r="3351" spans="1:2">
@@ -27207,7 +27207,7 @@
         <v>3358</v>
       </c>
       <c r="B3358">
-        <v>47.7242740776908</v>
+        <v>47.72427407769079</v>
       </c>
     </row>
     <row r="3359" spans="1:2">
@@ -27311,7 +27311,7 @@
         <v>3371</v>
       </c>
       <c r="B3371">
-        <v>67.29878182092071</v>
+        <v>67.29878182092069</v>
       </c>
     </row>
     <row r="3372" spans="1:2">
@@ -27327,7 +27327,7 @@
         <v>3373</v>
       </c>
       <c r="B3373">
-        <v>83.04373030196282</v>
+        <v>83.04373030196281</v>
       </c>
     </row>
     <row r="3374" spans="1:2">
@@ -27447,7 +27447,7 @@
         <v>3388</v>
       </c>
       <c r="B3388">
-        <v>59.74634115461784</v>
+        <v>59.74634115461783</v>
       </c>
     </row>
     <row r="3389" spans="1:2">
@@ -27463,7 +27463,7 @@
         <v>3390</v>
       </c>
       <c r="B3390">
-        <v>61.3054790802962</v>
+        <v>61.30547908029619</v>
       </c>
     </row>
     <row r="3391" spans="1:2">
@@ -27471,7 +27471,7 @@
         <v>3391</v>
       </c>
       <c r="B3391">
-        <v>69.91825076447581</v>
+        <v>69.9182507644758</v>
       </c>
     </row>
     <row r="3392" spans="1:2">
@@ -27583,7 +27583,7 @@
         <v>3405</v>
       </c>
       <c r="B3405">
-        <v>96.41626872504136</v>
+        <v>96.41626872504132</v>
       </c>
     </row>
     <row r="3406" spans="1:2">
@@ -27775,7 +27775,7 @@
         <v>3429</v>
       </c>
       <c r="B3429">
-        <v>58.28889887935497</v>
+        <v>58.28889887935496</v>
       </c>
     </row>
     <row r="3430" spans="1:2">
@@ -27943,7 +27943,7 @@
         <v>3450</v>
       </c>
       <c r="B3450">
-        <v>64.70774076811576</v>
+        <v>64.70774076811574</v>
       </c>
     </row>
     <row r="3451" spans="1:2">
@@ -27959,7 +27959,7 @@
         <v>3452</v>
       </c>
       <c r="B3452">
-        <v>56.44987811175503</v>
+        <v>56.44987811175502</v>
       </c>
     </row>
     <row r="3453" spans="1:2">
@@ -28095,7 +28095,7 @@
         <v>3469</v>
       </c>
       <c r="B3469">
-        <v>49.24003748964727</v>
+        <v>49.24003748964726</v>
       </c>
     </row>
     <row r="3470" spans="1:2">
@@ -28191,7 +28191,7 @@
         <v>3481</v>
       </c>
       <c r="B3481">
-        <v>32.35416345509654</v>
+        <v>32.35416345509653</v>
       </c>
     </row>
     <row r="3482" spans="1:2">
@@ -28279,7 +28279,7 @@
         <v>3492</v>
       </c>
       <c r="B3492">
-        <v>63.83292371771164</v>
+        <v>63.83292371771163</v>
       </c>
     </row>
     <row r="3493" spans="1:2">
@@ -28287,7 +28287,7 @@
         <v>3493</v>
       </c>
       <c r="B3493">
-        <v>74.00424718549229</v>
+        <v>74.00424718549228</v>
       </c>
     </row>
     <row r="3494" spans="1:2">
@@ -28303,7 +28303,7 @@
         <v>3495</v>
       </c>
       <c r="B3495">
-        <v>90.92089367910246</v>
+        <v>90.92089367910243</v>
       </c>
     </row>
     <row r="3496" spans="1:2">
@@ -28367,7 +28367,7 @@
         <v>3503</v>
       </c>
       <c r="B3503">
-        <v>97.80454623518014</v>
+        <v>97.80454623518013</v>
       </c>
     </row>
     <row r="3504" spans="1:2">
@@ -28407,7 +28407,7 @@
         <v>3508</v>
       </c>
       <c r="B3508">
-        <v>85.69045485211343</v>
+        <v>85.69045485211342</v>
       </c>
     </row>
     <row r="3509" spans="1:2">
@@ -28943,7 +28943,7 @@
         <v>3575</v>
       </c>
       <c r="B3575">
-        <v>99.4993760517587</v>
+        <v>99.49937605175867</v>
       </c>
     </row>
     <row r="3576" spans="1:2">
@@ -28991,7 +28991,7 @@
         <v>3581</v>
       </c>
       <c r="B3581">
-        <v>69.98448481921328</v>
+        <v>69.98448481921326</v>
       </c>
     </row>
     <row r="3582" spans="1:2">
@@ -28999,7 +28999,7 @@
         <v>3582</v>
       </c>
       <c r="B3582">
-        <v>74.56459901141278</v>
+        <v>74.56459901141277</v>
       </c>
     </row>
     <row r="3583" spans="1:2">
@@ -29015,7 +29015,7 @@
         <v>3584</v>
       </c>
       <c r="B3584">
-        <v>88.89079059429532</v>
+        <v>88.89079059429531</v>
       </c>
     </row>
     <row r="3585" spans="1:2">
@@ -29087,7 +29087,7 @@
         <v>3593</v>
       </c>
       <c r="B3593">
-        <v>200.1467113619539</v>
+        <v>200.1467113619538</v>
       </c>
     </row>
     <row r="3594" spans="1:2">
@@ -29127,7 +29127,7 @@
         <v>3598</v>
       </c>
       <c r="B3598">
-        <v>92.85750710257663</v>
+        <v>92.85750710257662</v>
       </c>
     </row>
     <row r="3599" spans="1:2">
@@ -29143,7 +29143,7 @@
         <v>3600</v>
       </c>
       <c r="B3600">
-        <v>82.05227097817149</v>
+        <v>82.05227097817148</v>
       </c>
     </row>
     <row r="3601" spans="1:2">
@@ -29175,7 +29175,7 @@
         <v>3604</v>
       </c>
       <c r="B3604">
-        <v>64.61630260405342</v>
+        <v>64.6163026040534</v>
       </c>
     </row>
     <row r="3605" spans="1:2">
@@ -29335,7 +29335,7 @@
         <v>3624</v>
       </c>
       <c r="B3624">
-        <v>66.43773910933368</v>
+        <v>66.43773910933366</v>
       </c>
     </row>
     <row r="3625" spans="1:2">
@@ -29359,7 +29359,7 @@
         <v>3627</v>
       </c>
       <c r="B3627">
-        <v>56.19256173981037</v>
+        <v>56.19256173981036</v>
       </c>
     </row>
     <row r="3628" spans="1:2">
@@ -29367,7 +29367,7 @@
         <v>3628</v>
       </c>
       <c r="B3628">
-        <v>52.93683557132148</v>
+        <v>52.93683557132147</v>
       </c>
     </row>
     <row r="3629" spans="1:2">
@@ -29535,7 +29535,7 @@
         <v>3649</v>
       </c>
       <c r="B3649">
-        <v>83.5610006852001</v>
+        <v>83.56100068520009</v>
       </c>
     </row>
     <row r="3650" spans="1:2">
@@ -29575,7 +29575,7 @@
         <v>3654</v>
       </c>
       <c r="B3654">
-        <v>68.92473994341385</v>
+        <v>68.92473994341384</v>
       </c>
     </row>
     <row r="3655" spans="1:2">
@@ -29599,7 +29599,7 @@
         <v>3657</v>
       </c>
       <c r="B3657">
-        <v>82.66889244351496</v>
+        <v>82.66889244351495</v>
       </c>
     </row>
     <row r="3658" spans="1:2">
@@ -29759,7 +29759,7 @@
         <v>3677</v>
       </c>
       <c r="B3677">
-        <v>107.7812705332897</v>
+        <v>107.7812705332896</v>
       </c>
     </row>
     <row r="3678" spans="1:2">
@@ -29983,7 +29983,7 @@
         <v>3705</v>
       </c>
       <c r="B3705">
-        <v>200.0637722580128</v>
+        <v>200.0637722580127</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -30151,7 +30151,7 @@
         <v>3726</v>
       </c>
       <c r="B3726">
-        <v>119.8165258069565</v>
+        <v>119.8165258069564</v>
       </c>
     </row>
     <row r="3727" spans="1:2">
@@ -30343,7 +30343,7 @@
         <v>3750</v>
       </c>
       <c r="B3750">
-        <v>93.28802845837016</v>
+        <v>93.28802845837014</v>
       </c>
     </row>
     <row r="3751" spans="1:2">
@@ -30527,7 +30527,7 @@
         <v>3773</v>
       </c>
       <c r="B3773">
-        <v>99.2007366633628</v>
+        <v>99.20073666336278</v>
       </c>
     </row>
     <row r="3774" spans="1:2">
@@ -30559,7 +30559,7 @@
         <v>3777</v>
       </c>
       <c r="B3777">
-        <v>187.8764131152807</v>
+        <v>187.8764131152806</v>
       </c>
     </row>
     <row r="3778" spans="1:2">
@@ -30567,7 +30567,7 @@
         <v>3778</v>
       </c>
       <c r="B3778">
-        <v>224.8027778445329</v>
+        <v>224.8027778445328</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
@@ -30871,7 +30871,7 @@
         <v>3816</v>
       </c>
       <c r="B3816">
-        <v>97.7661539291155</v>
+        <v>97.76615392911548</v>
       </c>
     </row>
     <row r="3817" spans="1:2">
@@ -31063,7 +31063,7 @@
         <v>3840</v>
       </c>
       <c r="B3840">
-        <v>91.41295995301486</v>
+        <v>91.41295995301483</v>
       </c>
     </row>
     <row r="3841" spans="1:2">
@@ -31079,7 +31079,7 @@
         <v>3842</v>
       </c>
       <c r="B3842">
-        <v>81.15283596051982</v>
+        <v>81.15283596051981</v>
       </c>
     </row>
     <row r="3843" spans="1:2">
@@ -31119,7 +31119,7 @@
         <v>3847</v>
       </c>
       <c r="B3847">
-        <v>71.69133054837695</v>
+        <v>71.69133054837694</v>
       </c>
     </row>
     <row r="3848" spans="1:2">
@@ -31199,7 +31199,7 @@
         <v>3857</v>
       </c>
       <c r="B3857">
-        <v>114.502561733949</v>
+        <v>114.5025617339489</v>
       </c>
     </row>
     <row r="3858" spans="1:2">
@@ -31247,7 +31247,7 @@
         <v>3863</v>
       </c>
       <c r="B3863">
-        <v>99.93663804144144</v>
+        <v>99.9366380414414</v>
       </c>
     </row>
     <row r="3864" spans="1:2">
@@ -31255,7 +31255,7 @@
         <v>3864</v>
       </c>
       <c r="B3864">
-        <v>95.96318089927092</v>
+        <v>95.9631808992709</v>
       </c>
     </row>
     <row r="3865" spans="1:2">
@@ -31279,7 +31279,7 @@
         <v>3867</v>
       </c>
       <c r="B3867">
-        <v>82.27148811509018</v>
+        <v>82.27148811509016</v>
       </c>
     </row>
     <row r="3868" spans="1:2">
@@ -31503,7 +31503,7 @@
         <v>3895</v>
       </c>
       <c r="B3895">
-        <v>92.45218985610801</v>
+        <v>92.45218985610798</v>
       </c>
     </row>
     <row r="3896" spans="1:2">
@@ -31695,7 +31695,7 @@
         <v>3919</v>
       </c>
       <c r="B3919">
-        <v>52.48052396412577</v>
+        <v>52.48052396412576</v>
       </c>
     </row>
     <row r="3920" spans="1:2">
@@ -31839,7 +31839,7 @@
         <v>3937</v>
       </c>
       <c r="B3937">
-        <v>53.26507513462219</v>
+        <v>53.26507513462218</v>
       </c>
     </row>
     <row r="3938" spans="1:2">
@@ -31847,7 +31847,7 @@
         <v>3938</v>
       </c>
       <c r="B3938">
-        <v>46.81721921303393</v>
+        <v>46.81721921303392</v>
       </c>
     </row>
     <row r="3939" spans="1:2">
@@ -31887,7 +31887,7 @@
         <v>3943</v>
       </c>
       <c r="B3943">
-        <v>43.37509986395643</v>
+        <v>43.37509986395642</v>
       </c>
     </row>
     <row r="3944" spans="1:2">
@@ -31919,7 +31919,7 @@
         <v>3947</v>
       </c>
       <c r="B3947">
-        <v>87.57079863616462</v>
+        <v>87.57079863616461</v>
       </c>
     </row>
     <row r="3948" spans="1:2">
@@ -31991,7 +31991,7 @@
         <v>3956</v>
       </c>
       <c r="B3956">
-        <v>75.01563533991259</v>
+        <v>75.01563533991258</v>
       </c>
     </row>
     <row r="3957" spans="1:2">
@@ -32111,7 +32111,7 @@
         <v>3971</v>
       </c>
       <c r="B3971">
-        <v>82.12378031160486</v>
+        <v>82.12378031160485</v>
       </c>
     </row>
     <row r="3972" spans="1:2">
@@ -32191,7 +32191,7 @@
         <v>3981</v>
       </c>
       <c r="B3981">
-        <v>73.40608919558449</v>
+        <v>73.40608919558447</v>
       </c>
     </row>
     <row r="3982" spans="1:2">
@@ -32263,7 +32263,7 @@
         <v>3990</v>
       </c>
       <c r="B3990">
-        <v>34.14482750131736</v>
+        <v>34.14482750131735</v>
       </c>
     </row>
     <row r="3991" spans="1:2">
@@ -32287,7 +32287,7 @@
         <v>3993</v>
       </c>
       <c r="B3993">
-        <v>45.55085925497826</v>
+        <v>45.55085925497825</v>
       </c>
     </row>
     <row r="3994" spans="1:2">
@@ -32327,7 +32327,7 @@
         <v>3998</v>
       </c>
       <c r="B3998">
-        <v>76.33826493739124</v>
+        <v>76.33826493739123</v>
       </c>
     </row>
     <row r="3999" spans="1:2">
@@ -32335,7 +32335,7 @@
         <v>3999</v>
       </c>
       <c r="B3999">
-        <v>80.51364802519943</v>
+        <v>80.51364802519942</v>
       </c>
     </row>
     <row r="4000" spans="1:2">
@@ -32423,7 +32423,7 @@
         <v>4010</v>
       </c>
       <c r="B4010">
-        <v>54.55458770473211</v>
+        <v>54.5545877047321</v>
       </c>
     </row>
     <row r="4011" spans="1:2">
@@ -32471,7 +32471,7 @@
         <v>4016</v>
       </c>
       <c r="B4016">
-        <v>50.09844256188635</v>
+        <v>50.09844256188634</v>
       </c>
     </row>
     <row r="4017" spans="1:2">
@@ -32487,7 +32487,7 @@
         <v>4018</v>
       </c>
       <c r="B4018">
-        <v>60.21525481647599</v>
+        <v>60.21525481647598</v>
       </c>
     </row>
     <row r="4019" spans="1:2">
@@ -32511,7 +32511,7 @@
         <v>4021</v>
       </c>
       <c r="B4021">
-        <v>78.52662638307551</v>
+        <v>78.5266263830755</v>
       </c>
     </row>
     <row r="4022" spans="1:2">
@@ -32687,7 +32687,7 @@
         <v>4043</v>
       </c>
       <c r="B4043">
-        <v>110.7881793899551</v>
+        <v>110.788179389955</v>
       </c>
     </row>
     <row r="4044" spans="1:2">
@@ -32727,7 +32727,7 @@
         <v>4048</v>
       </c>
       <c r="B4048">
-        <v>227.1356233122772</v>
+        <v>227.1356233122771</v>
       </c>
     </row>
     <row r="4049" spans="1:2">
@@ -32735,7 +32735,7 @@
         <v>4049</v>
       </c>
       <c r="B4049">
-        <v>217.2098933748948</v>
+        <v>217.2098933748947</v>
       </c>
     </row>
     <row r="4050" spans="1:2">
@@ -32791,7 +32791,7 @@
         <v>4056</v>
       </c>
       <c r="B4056">
-        <v>92.80915038119753</v>
+        <v>92.8091503811975</v>
       </c>
     </row>
     <row r="4057" spans="1:2">
@@ -32799,7 +32799,7 @@
         <v>4057</v>
       </c>
       <c r="B4057">
-        <v>87.81053074578961</v>
+        <v>87.81053074578959</v>
       </c>
     </row>
     <row r="4058" spans="1:2">
@@ -33223,7 +33223,7 @@
         <v>4110</v>
       </c>
       <c r="B4110">
-        <v>85.34404488441572</v>
+        <v>85.34404488441571</v>
       </c>
     </row>
     <row r="4111" spans="1:2">
@@ -33383,7 +33383,7 @@
         <v>4130</v>
       </c>
       <c r="B4130">
-        <v>86.18252112602583</v>
+        <v>86.18252112602582</v>
       </c>
     </row>
     <row r="4131" spans="1:2">
@@ -33495,7 +33495,7 @@
         <v>4144</v>
       </c>
       <c r="B4144">
-        <v>275.2836781118723</v>
+        <v>275.2836781118722</v>
       </c>
     </row>
     <row r="4145" spans="1:2">
@@ -33615,7 +33615,7 @@
         <v>4159</v>
       </c>
       <c r="B4159">
-        <v>78.99817768428161</v>
+        <v>78.9981776842816</v>
       </c>
     </row>
     <row r="4160" spans="1:2">
@@ -33727,7 +33727,7 @@
         <v>4173</v>
       </c>
       <c r="B4173">
-        <v>85.93223845900904</v>
+        <v>85.93223845900903</v>
       </c>
     </row>
     <row r="4174" spans="1:2">
@@ -33751,7 +33751,7 @@
         <v>4176</v>
       </c>
       <c r="B4176">
-        <v>66.41781027870471</v>
+        <v>66.41781027870469</v>
       </c>
     </row>
     <row r="4177" spans="1:2">
@@ -33775,7 +33775,7 @@
         <v>4179</v>
       </c>
       <c r="B4179">
-        <v>48.36082437366324</v>
+        <v>48.36082437366323</v>
       </c>
     </row>
     <row r="4180" spans="1:2">
@@ -33791,7 +33791,7 @@
         <v>4181</v>
       </c>
       <c r="B4181">
-        <v>40.23923975028004</v>
+        <v>40.23923975028003</v>
       </c>
     </row>
     <row r="4182" spans="1:2">
@@ -33799,7 +33799,7 @@
         <v>4182</v>
       </c>
       <c r="B4182">
-        <v>39.02387415295144</v>
+        <v>39.02387415295143</v>
       </c>
     </row>
     <row r="4183" spans="1:2">
@@ -33815,7 +33815,7 @@
         <v>4184</v>
       </c>
       <c r="B4184">
-        <v>46.06021672017168</v>
+        <v>46.06021672017167</v>
       </c>
     </row>
     <row r="4185" spans="1:2">
@@ -33983,7 +33983,7 @@
         <v>4205</v>
       </c>
       <c r="B4205">
-        <v>34.56040223413915</v>
+        <v>34.56040223413914</v>
       </c>
     </row>
     <row r="4206" spans="1:2">
@@ -34087,7 +34087,7 @@
         <v>4218</v>
       </c>
       <c r="B4218">
-        <v>97.84762767786336</v>
+        <v>97.84762767786334</v>
       </c>
     </row>
     <row r="4219" spans="1:2">
@@ -34127,7 +34127,7 @@
         <v>4223</v>
       </c>
       <c r="B4223">
-        <v>75.77468933004548</v>
+        <v>75.77468933004546</v>
       </c>
     </row>
     <row r="4224" spans="1:2">
@@ -34167,7 +34167,7 @@
         <v>4228</v>
       </c>
       <c r="B4228">
-        <v>49.59670494369813</v>
+        <v>49.59670494369812</v>
       </c>
     </row>
     <row r="4229" spans="1:2">
@@ -34567,7 +34567,7 @@
         <v>4278</v>
       </c>
       <c r="B4278">
-        <v>138.1363964336772</v>
+        <v>138.1363964336771</v>
       </c>
     </row>
     <row r="4279" spans="1:2">
@@ -34767,7 +34767,7 @@
         <v>4303</v>
       </c>
       <c r="B4303">
-        <v>155.091435233352</v>
+        <v>155.0914352333519</v>
       </c>
     </row>
     <row r="4304" spans="1:2">
@@ -35119,7 +35119,7 @@
         <v>4347</v>
       </c>
       <c r="B4347">
-        <v>109.2642099889161</v>
+        <v>109.264209988916</v>
       </c>
     </row>
     <row r="4348" spans="1:2">
@@ -35127,7 +35127,7 @@
         <v>4348</v>
       </c>
       <c r="B4348">
-        <v>105.9525072520429</v>
+        <v>105.9525072520428</v>
       </c>
     </row>
     <row r="4349" spans="1:2">
@@ -35215,7 +35215,7 @@
         <v>4359</v>
       </c>
       <c r="B4359">
-        <v>143.8893809225994</v>
+        <v>143.8893809225993</v>
       </c>
     </row>
     <row r="4360" spans="1:2">
@@ -35455,7 +35455,7 @@
         <v>4389</v>
       </c>
       <c r="B4389">
-        <v>162.269917254323</v>
+        <v>162.2699172543229</v>
       </c>
     </row>
     <row r="4390" spans="1:2">
@@ -35543,7 +35543,7 @@
         <v>4400</v>
       </c>
       <c r="B4400">
-        <v>200.5851456357913</v>
+        <v>200.5851456357912</v>
       </c>
     </row>
     <row r="4401" spans="1:2">
@@ -36079,7 +36079,7 @@
         <v>4467</v>
       </c>
       <c r="B4467">
-        <v>90.31746041049875</v>
+        <v>90.31746041049874</v>
       </c>
     </row>
     <row r="4468" spans="1:2">
@@ -36471,7 +36471,7 @@
         <v>4516</v>
       </c>
       <c r="B4516">
-        <v>88.0880690194019</v>
+        <v>88.08806901940189</v>
       </c>
     </row>
     <row r="4517" spans="1:2">
@@ -36759,7 +36759,7 @@
         <v>4552</v>
       </c>
       <c r="B4552">
-        <v>272.1199762495231</v>
+        <v>272.119976249523</v>
       </c>
     </row>
     <row r="4553" spans="1:2">
@@ -36887,7 +36887,7 @@
         <v>4568</v>
       </c>
       <c r="B4568">
-        <v>145.8963313953523</v>
+        <v>145.8963313953522</v>
       </c>
     </row>
     <row r="4569" spans="1:2">
@@ -36991,7 +36991,7 @@
         <v>4581</v>
       </c>
       <c r="B4581">
-        <v>148.666731923818</v>
+        <v>148.6667319238179</v>
       </c>
     </row>
     <row r="4582" spans="1:2">
@@ -37095,7 +37095,7 @@
         <v>4594</v>
       </c>
       <c r="B4594">
-        <v>246.0211210436143</v>
+        <v>246.0211210436142</v>
       </c>
     </row>
     <row r="4595" spans="1:2">
@@ -37207,7 +37207,7 @@
         <v>4608</v>
       </c>
       <c r="B4608">
-        <v>129.6531621485859</v>
+        <v>129.6531621485858</v>
       </c>
     </row>
     <row r="4609" spans="1:2">
@@ -37407,7 +37407,7 @@
         <v>4633</v>
       </c>
       <c r="B4633">
-        <v>95.66717915022296</v>
+        <v>95.66717915022294</v>
       </c>
     </row>
     <row r="4634" spans="1:2">
@@ -37503,7 +37503,7 @@
         <v>4645</v>
       </c>
       <c r="B4645">
-        <v>208.4617228708536</v>
+        <v>208.4617228708535</v>
       </c>
     </row>
     <row r="4646" spans="1:2">
@@ -37655,7 +37655,7 @@
         <v>4664</v>
       </c>
       <c r="B4664">
-        <v>112.9680417755182</v>
+        <v>112.9680417755181</v>
       </c>
     </row>
     <row r="4665" spans="1:2">
@@ -38039,7 +38039,7 @@
         <v>4712</v>
       </c>
       <c r="B4712">
-        <v>268.0354451836999</v>
+        <v>268.0354451836998</v>
       </c>
     </row>
     <row r="4713" spans="1:2">
@@ -38063,7 +38063,7 @@
         <v>4715</v>
       </c>
       <c r="B4715">
-        <v>297.4846885035852</v>
+        <v>297.4846885035851</v>
       </c>
     </row>
     <row r="4716" spans="1:2">
@@ -38151,7 +38151,7 @@
         <v>4726</v>
       </c>
       <c r="B4726">
-        <v>158.9529392387539</v>
+        <v>158.9529392387538</v>
       </c>
     </row>
     <row r="4727" spans="1:2">
@@ -38231,7 +38231,7 @@
         <v>4736</v>
       </c>
       <c r="B4736">
-        <v>239.4742071109585</v>
+        <v>239.4742071109584</v>
       </c>
     </row>
     <row r="4737" spans="1:2">
@@ -38239,7 +38239,7 @@
         <v>4737</v>
       </c>
       <c r="B4737">
-        <v>255.87827235795</v>
+        <v>255.8782723579499</v>
       </c>
     </row>
     <row r="4738" spans="1:2">
@@ -38255,7 +38255,7 @@
         <v>4739</v>
       </c>
       <c r="B4739">
-        <v>273.411247245865</v>
+        <v>273.4112472458649</v>
       </c>
     </row>
     <row r="4740" spans="1:2">
@@ -38447,7 +38447,7 @@
         <v>4763</v>
       </c>
       <c r="B4763">
-        <v>241.8639083602031</v>
+        <v>241.863908360203</v>
       </c>
     </row>
     <row r="4764" spans="1:2">
@@ -38591,7 +38591,7 @@
         <v>4781</v>
       </c>
       <c r="B4781">
-        <v>92.7985998238057</v>
+        <v>92.79859982380567</v>
       </c>
     </row>
     <row r="4782" spans="1:2">
@@ -38647,7 +38647,7 @@
         <v>4788</v>
       </c>
       <c r="B4788">
-        <v>207.2768366615458</v>
+        <v>207.2768366615457</v>
       </c>
     </row>
     <row r="4789" spans="1:2">
@@ -38727,7 +38727,7 @@
         <v>4798</v>
       </c>
       <c r="B4798">
-        <v>121.8287515584053</v>
+        <v>121.8287515584052</v>
       </c>
     </row>
     <row r="4799" spans="1:2">
@@ -38775,7 +38775,7 @@
         <v>4804</v>
       </c>
       <c r="B4804">
-        <v>91.22363606203965</v>
+        <v>91.22363606203962</v>
       </c>
     </row>
     <row r="4805" spans="1:2">
@@ -38887,7 +38887,7 @@
         <v>4818</v>
       </c>
       <c r="B4818">
-        <v>126.9783027787238</v>
+        <v>126.9783027787237</v>
       </c>
     </row>
     <row r="4819" spans="1:2">
@@ -38967,7 +38967,7 @@
         <v>4828</v>
       </c>
       <c r="B4828">
-        <v>82.70933624685023</v>
+        <v>82.70933624685021</v>
       </c>
     </row>
     <row r="4829" spans="1:2">
@@ -38999,7 +38999,7 @@
         <v>4832</v>
       </c>
       <c r="B4832">
-        <v>87.16342989242536</v>
+        <v>87.16342989242534</v>
       </c>
     </row>
     <row r="4833" spans="1:2">
@@ -39151,7 +39151,7 @@
         <v>4851</v>
       </c>
       <c r="B4851">
-        <v>112.9838676116059</v>
+        <v>112.9838676116058</v>
       </c>
     </row>
     <row r="4852" spans="1:2">
@@ -39359,7 +39359,7 @@
         <v>4877</v>
       </c>
       <c r="B4877">
-        <v>99.0073097778463</v>
+        <v>99.00730977784627</v>
       </c>
     </row>
     <row r="4878" spans="1:2">
@@ -39431,7 +39431,7 @@
         <v>4886</v>
       </c>
       <c r="B4886">
-        <v>231.6134557119839</v>
+        <v>231.6134557119838</v>
       </c>
     </row>
     <row r="4887" spans="1:2">
@@ -39855,7 +39855,7 @@
         <v>4939</v>
       </c>
       <c r="B4939">
-        <v>163.096377583348</v>
+        <v>163.0963775833479</v>
       </c>
     </row>
     <row r="4940" spans="1:2">
@@ -39927,7 +39927,7 @@
         <v>4948</v>
       </c>
       <c r="B4948">
-        <v>137.4236476676528</v>
+        <v>137.4236476676527</v>
       </c>
     </row>
     <row r="4949" spans="1:2">
@@ -40111,7 +40111,7 @@
         <v>4971</v>
       </c>
       <c r="B4971">
-        <v>141.268446623851</v>
+        <v>141.2684466238509</v>
       </c>
     </row>
     <row r="4972" spans="1:2">
@@ -40423,7 +40423,7 @@
         <v>5010</v>
       </c>
       <c r="B5010">
-        <v>178.2504948504488</v>
+        <v>178.2504948504487</v>
       </c>
     </row>
     <row r="5011" spans="1:2">
@@ -40471,7 +40471,7 @@
         <v>5016</v>
       </c>
       <c r="B5016">
-        <v>156.6631752136928</v>
+        <v>156.6631752136927</v>
       </c>
     </row>
     <row r="5017" spans="1:2">
@@ -40479,7 +40479,7 @@
         <v>5017</v>
       </c>
       <c r="B5017">
-        <v>151.9731593819953</v>
+        <v>151.9731593819952</v>
       </c>
     </row>
     <row r="5018" spans="1:2">
@@ -40743,7 +40743,7 @@
         <v>5050</v>
       </c>
       <c r="B5050">
-        <v>258.136091639797</v>
+        <v>258.1360916397969</v>
       </c>
     </row>
     <row r="5051" spans="1:2">
@@ -40799,7 +40799,7 @@
         <v>5057</v>
       </c>
       <c r="B5057">
-        <v>326.3463243909545</v>
+        <v>326.3463243909544</v>
       </c>
     </row>
     <row r="5058" spans="1:2">
@@ -40911,7 +40911,7 @@
         <v>5071</v>
       </c>
       <c r="B5071">
-        <v>205.3214666915973</v>
+        <v>205.3214666915972</v>
       </c>
     </row>
     <row r="5072" spans="1:2">
@@ -40943,7 +40943,7 @@
         <v>5075</v>
       </c>
       <c r="B5075">
-        <v>291.4456666809295</v>
+        <v>291.4456666809294</v>
       </c>
     </row>
     <row r="5076" spans="1:2">
@@ -40975,7 +40975,7 @@
         <v>5079</v>
       </c>
       <c r="B5079">
-        <v>371.2301539619395</v>
+        <v>371.2301539619394</v>
       </c>
     </row>
     <row r="5080" spans="1:2">
@@ -41039,7 +41039,7 @@
         <v>5087</v>
       </c>
       <c r="B5087">
-        <v>180.0924463284354</v>
+        <v>180.0924463284353</v>
       </c>
     </row>
     <row r="5088" spans="1:2">
@@ -41111,7 +41111,7 @@
         <v>5096</v>
       </c>
       <c r="B5096">
-        <v>280.7652788189941</v>
+        <v>280.765278818994</v>
       </c>
     </row>
     <row r="5097" spans="1:2">
@@ -41183,7 +41183,7 @@
         <v>5105</v>
       </c>
       <c r="B5105">
-        <v>354.478213392057</v>
+        <v>354.4782133920569</v>
       </c>
     </row>
     <row r="5106" spans="1:2">
@@ -41239,7 +41239,7 @@
         <v>5112</v>
       </c>
       <c r="B5112">
-        <v>186.3172751896024</v>
+        <v>186.3172751896023</v>
       </c>
     </row>
     <row r="5113" spans="1:2">
@@ -41375,7 +41375,7 @@
         <v>5129</v>
       </c>
       <c r="B5129">
-        <v>390.3794156280718</v>
+        <v>390.3794156280717</v>
       </c>
     </row>
     <row r="5130" spans="1:2">
@@ -41447,7 +41447,7 @@
         <v>5138</v>
       </c>
       <c r="B5138">
-        <v>167.8083737429451</v>
+        <v>167.808373742945</v>
       </c>
     </row>
     <row r="5139" spans="1:2">
@@ -41487,7 +41487,7 @@
         <v>5143</v>
       </c>
       <c r="B5143">
-        <v>236.8690986482978</v>
+        <v>236.8690986482977</v>
       </c>
     </row>
     <row r="5144" spans="1:2">
@@ -41567,7 +41567,7 @@
         <v>5153</v>
       </c>
       <c r="B5153">
-        <v>334.8219388290406</v>
+        <v>334.8219388290405</v>
       </c>
     </row>
     <row r="5154" spans="1:2">
@@ -41863,7 +41863,7 @@
         <v>5190</v>
       </c>
       <c r="B5190">
-        <v>139.0006629266895</v>
+        <v>139.0006629266894</v>
       </c>
     </row>
     <row r="5191" spans="1:2">
@@ -42103,7 +42103,7 @@
         <v>5220</v>
       </c>
       <c r="B5220">
-        <v>296.2713744035272</v>
+        <v>296.2713744035271</v>
       </c>
     </row>
     <row r="5221" spans="1:2">
@@ -42119,7 +42119,7 @@
         <v>5222</v>
       </c>
       <c r="B5222">
-        <v>327.9611458139785</v>
+        <v>327.9611458139784</v>
       </c>
     </row>
     <row r="5223" spans="1:2">
@@ -42295,7 +42295,7 @@
         <v>5244</v>
       </c>
       <c r="B5244">
-        <v>277.0107457427036</v>
+        <v>277.0107457427035</v>
       </c>
     </row>
     <row r="5245" spans="1:2">
@@ -42399,7 +42399,7 @@
         <v>5257</v>
       </c>
       <c r="B5257">
-        <v>79.63736561960201</v>
+        <v>79.63736561960199</v>
       </c>
     </row>
     <row r="5258" spans="1:2">
@@ -42415,7 +42415,7 @@
         <v>5259</v>
       </c>
       <c r="B5259">
-        <v>58.55911037700073</v>
+        <v>58.55911037700072</v>
       </c>
     </row>
     <row r="5260" spans="1:2">
@@ -42575,7 +42575,7 @@
         <v>5279</v>
       </c>
       <c r="B5279">
-        <v>68.62404905774731</v>
+        <v>68.6240490577473</v>
       </c>
     </row>
     <row r="5280" spans="1:2">
@@ -42599,7 +42599,7 @@
         <v>5282</v>
       </c>
       <c r="B5282">
-        <v>51.71355705594903</v>
+        <v>51.71355705594902</v>
       </c>
     </row>
     <row r="5283" spans="1:2">
@@ -42647,7 +42647,7 @@
         <v>5288</v>
       </c>
       <c r="B5288">
-        <v>50.94659014777229</v>
+        <v>50.94659014777228</v>
       </c>
     </row>
     <row r="5289" spans="1:2">
@@ -42855,7 +42855,7 @@
         <v>5314</v>
       </c>
       <c r="B5314">
-        <v>95.26772332452754</v>
+        <v>95.26772332452752</v>
       </c>
     </row>
     <row r="5315" spans="1:2">
@@ -42959,7 +42959,7 @@
         <v>5327</v>
       </c>
       <c r="B5327">
-        <v>76.50853921085348</v>
+        <v>76.50853921085347</v>
       </c>
     </row>
     <row r="5328" spans="1:2">
@@ -42983,7 +42983,7 @@
         <v>5330</v>
       </c>
       <c r="B5330">
-        <v>64.25992822104122</v>
+        <v>64.25992822104121</v>
       </c>
     </row>
     <row r="5331" spans="1:2">
@@ -42991,7 +42991,7 @@
         <v>5331</v>
       </c>
       <c r="B5331">
-        <v>59.98343562489487</v>
+        <v>59.98343562489486</v>
       </c>
     </row>
     <row r="5332" spans="1:2">
@@ -43039,7 +43039,7 @@
         <v>5337</v>
       </c>
       <c r="B5337">
-        <v>64.77456096493054</v>
+        <v>64.77456096493053</v>
       </c>
     </row>
     <row r="5338" spans="1:2">
@@ -43047,7 +43047,7 @@
         <v>5338</v>
       </c>
       <c r="B5338">
-        <v>70.09907559532986</v>
+        <v>70.09907559532985</v>
       </c>
     </row>
     <row r="5339" spans="1:2">
@@ -43055,7 +43055,7 @@
         <v>5339</v>
       </c>
       <c r="B5339">
-        <v>77.19403237028237</v>
+        <v>77.19403237028236</v>
       </c>
     </row>
     <row r="5340" spans="1:2">
@@ -43223,7 +43223,7 @@
         <v>5360</v>
       </c>
       <c r="B5360">
-        <v>96.07513403603954</v>
+        <v>96.07513403603951</v>
       </c>
     </row>
     <row r="5361" spans="1:2">
@@ -43359,7 +43359,7 @@
         <v>5377</v>
       </c>
       <c r="B5377">
-        <v>110.5220708868506</v>
+        <v>110.5220708868505</v>
       </c>
     </row>
     <row r="5378" spans="1:2">
@@ -43495,7 +43495,7 @@
         <v>5394</v>
       </c>
       <c r="B5394">
-        <v>139.3842929162972</v>
+        <v>139.3842929162971</v>
       </c>
     </row>
     <row r="5395" spans="1:2">
@@ -43583,7 +43583,7 @@
         <v>5405</v>
       </c>
       <c r="B5405">
-        <v>91.50908725369578</v>
+        <v>91.50908725369575</v>
       </c>
     </row>
     <row r="5406" spans="1:2">
@@ -43663,7 +43663,7 @@
         <v>5415</v>
       </c>
       <c r="B5415">
-        <v>289.4041338256146</v>
+        <v>289.4041338256145</v>
       </c>
     </row>
     <row r="5416" spans="1:2">
@@ -43863,7 +43863,7 @@
         <v>5440</v>
       </c>
       <c r="B5440">
-        <v>246.864286421843</v>
+        <v>246.8642864218429</v>
       </c>
     </row>
     <row r="5441" spans="1:2">
@@ -43871,7 +43871,7 @@
         <v>5441</v>
       </c>
       <c r="B5441">
-        <v>226.2347229394322</v>
+        <v>226.2347229394321</v>
       </c>
     </row>
     <row r="5442" spans="1:2">
@@ -44199,7 +44199,7 @@
         <v>5482</v>
       </c>
       <c r="B5482">
-        <v>185.6991883690656</v>
+        <v>185.6991883690655</v>
       </c>
     </row>
     <row r="5483" spans="1:2">
@@ -44671,7 +44671,7 @@
         <v>5541</v>
       </c>
       <c r="B5541">
-        <v>145.2571434600319</v>
+        <v>145.2571434600318</v>
       </c>
     </row>
     <row r="5542" spans="1:2">
@@ -44823,7 +44823,7 @@
         <v>5560</v>
       </c>
       <c r="B5560">
-        <v>313.8878745374607</v>
+        <v>313.8878745374606</v>
       </c>
     </row>
     <row r="5561" spans="1:2">
@@ -45095,7 +45095,7 @@
         <v>5594</v>
       </c>
       <c r="B5594">
-        <v>69.22015555038449</v>
+        <v>69.22015555038448</v>
       </c>
     </row>
     <row r="5595" spans="1:2">
@@ -45103,7 +45103,7 @@
         <v>5595</v>
       </c>
       <c r="B5595">
-        <v>62.93612633940792</v>
+        <v>62.93612633940791</v>
       </c>
     </row>
     <row r="5596" spans="1:2">
@@ -45207,7 +45207,7 @@
         <v>5608</v>
       </c>
       <c r="B5608">
-        <v>201.7879091784575</v>
+        <v>201.7879091784574</v>
       </c>
     </row>
     <row r="5609" spans="1:2">
@@ -45399,7 +45399,7 @@
         <v>5632</v>
       </c>
       <c r="B5632">
-        <v>232.0161353191046</v>
+        <v>232.0161353191045</v>
       </c>
     </row>
     <row r="5633" spans="1:2">
@@ -45479,7 +45479,7 @@
         <v>5642</v>
       </c>
       <c r="B5642">
-        <v>68.74860424917838</v>
+        <v>68.74860424917837</v>
       </c>
     </row>
     <row r="5643" spans="1:2">
@@ -45519,7 +45519,7 @@
         <v>5647</v>
       </c>
       <c r="B5647">
-        <v>63.86633381611903</v>
+        <v>63.86633381611902</v>
       </c>
     </row>
     <row r="5648" spans="1:2">
@@ -45575,7 +45575,7 @@
         <v>5654</v>
       </c>
       <c r="B5654">
-        <v>203.9809597607603</v>
+        <v>203.9809597607602</v>
       </c>
     </row>
     <row r="5655" spans="1:2">
@@ -45655,7 +45655,7 @@
         <v>5664</v>
       </c>
       <c r="B5664">
-        <v>94.21002994599874</v>
+        <v>94.21002994599873</v>
       </c>
     </row>
     <row r="5665" spans="1:2">
@@ -45679,7 +45679,7 @@
         <v>5667</v>
       </c>
       <c r="B5667">
-        <v>82.88342044381507</v>
+        <v>82.88342044381506</v>
       </c>
     </row>
     <row r="5668" spans="1:2">
@@ -45695,7 +45695,7 @@
         <v>5669</v>
       </c>
       <c r="B5669">
-        <v>76.20052154922041</v>
+        <v>76.2005215492204</v>
       </c>
     </row>
     <row r="5670" spans="1:2">
@@ -46199,7 +46199,7 @@
         <v>5732</v>
       </c>
       <c r="B5732">
-        <v>133.7670003182752</v>
+        <v>133.7670003182751</v>
       </c>
     </row>
     <row r="5733" spans="1:2">
@@ -46207,7 +46207,7 @@
         <v>5733</v>
       </c>
       <c r="B5733">
-        <v>129.2021258200861</v>
+        <v>129.202125820086</v>
       </c>
     </row>
     <row r="5734" spans="1:2">
@@ -46263,7 +46263,7 @@
         <v>5740</v>
       </c>
       <c r="B5740">
-        <v>98.04691598415307</v>
+        <v>98.04691598415306</v>
       </c>
     </row>
     <row r="5741" spans="1:2">
@@ -46279,7 +46279,7 @@
         <v>5742</v>
       </c>
       <c r="B5742">
-        <v>95.68974562019989</v>
+        <v>95.68974562019986</v>
       </c>
     </row>
     <row r="5743" spans="1:2">
@@ -46551,7 +46551,7 @@
         <v>5776</v>
       </c>
       <c r="B5776">
-        <v>286.9596282921403</v>
+        <v>286.9596282921402</v>
       </c>
     </row>
     <row r="5777" spans="1:2">
@@ -46567,7 +46567,7 @@
         <v>5778</v>
       </c>
       <c r="B5778">
-        <v>132.6442451691636</v>
+        <v>132.6442451691635</v>
       </c>
     </row>
     <row r="5779" spans="1:2">
@@ -46631,7 +46631,7 @@
         <v>5786</v>
       </c>
       <c r="B5786">
-        <v>80.11096841807874</v>
+        <v>80.11096841807873</v>
       </c>
     </row>
     <row r="5787" spans="1:2">
@@ -46727,7 +46727,7 @@
         <v>5798</v>
       </c>
       <c r="B5798">
-        <v>233.996709398378</v>
+        <v>233.9967093983779</v>
       </c>
     </row>
     <row r="5799" spans="1:2">
@@ -46783,7 +46783,7 @@
         <v>5805</v>
       </c>
       <c r="B5805">
-        <v>89.06575400437615</v>
+        <v>89.06575400437613</v>
       </c>
     </row>
     <row r="5806" spans="1:2">
@@ -46815,7 +46815,7 @@
         <v>5809</v>
       </c>
       <c r="B5809">
-        <v>58.35513293409243</v>
+        <v>58.35513293409242</v>
       </c>
     </row>
     <row r="5810" spans="1:2">
@@ -46871,7 +46871,7 @@
         <v>5816</v>
       </c>
       <c r="B5816">
-        <v>45.21441370259503</v>
+        <v>45.21441370259502</v>
       </c>
     </row>
     <row r="5817" spans="1:2">
@@ -47023,7 +47023,7 @@
         <v>5835</v>
       </c>
       <c r="B5835">
-        <v>115.530654937573</v>
+        <v>115.5306549375729</v>
       </c>
     </row>
     <row r="5836" spans="1:2">
@@ -47079,7 +47079,7 @@
         <v>5842</v>
       </c>
       <c r="B5842">
-        <v>121.7074201483995</v>
+        <v>121.7074201483994</v>
       </c>
     </row>
     <row r="5843" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>137.8263272747735</v>
+        <v>137.8263272747734</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47311,7 +47311,7 @@
         <v>5871</v>
       </c>
       <c r="B5871">
-        <v>147.3672549383936</v>
+        <v>147.3672549383935</v>
       </c>
     </row>
     <row r="5872" spans="1:2">
@@ -47607,7 +47607,7 @@
         <v>5908</v>
       </c>
       <c r="B5908">
-        <v>80.35333816705167</v>
+        <v>80.35333816705166</v>
       </c>
     </row>
     <row r="5909" spans="1:2">
@@ -47623,7 +47623,7 @@
         <v>5910</v>
       </c>
       <c r="B5910">
-        <v>78.20278288535472</v>
+        <v>78.20278288535471</v>
       </c>
     </row>
     <row r="5911" spans="1:2">
@@ -47751,7 +47751,7 @@
         <v>5926</v>
       </c>
       <c r="B5926">
-        <v>98.88480608368586</v>
+        <v>98.88480608368585</v>
       </c>
     </row>
     <row r="5927" spans="1:2">
@@ -47775,7 +47775,7 @@
         <v>5929</v>
       </c>
       <c r="B5929">
-        <v>83.30339124221678</v>
+        <v>83.30339124221676</v>
       </c>
     </row>
     <row r="5930" spans="1:2">
@@ -47831,7 +47831,7 @@
         <v>5936</v>
       </c>
       <c r="B5936">
-        <v>81.00043902041593</v>
+        <v>81.00043902041591</v>
       </c>
     </row>
     <row r="5937" spans="1:2">
@@ -48071,7 +48071,7 @@
         <v>5966</v>
       </c>
       <c r="B5966">
-        <v>260.7277188346793</v>
+        <v>260.7277188346792</v>
       </c>
     </row>
     <row r="5967" spans="1:2">
@@ -48079,7 +48079,7 @@
         <v>5967</v>
       </c>
       <c r="B5967">
-        <v>283.5438853365423</v>
+        <v>283.5438853365422</v>
       </c>
     </row>
     <row r="5968" spans="1:2">
@@ -48223,7 +48223,7 @@
         <v>5985</v>
       </c>
       <c r="B5985">
-        <v>220.4219519586231</v>
+        <v>220.421951958623</v>
       </c>
     </row>
     <row r="5986" spans="1:2">
@@ -48239,7 +48239,7 @@
         <v>5987</v>
       </c>
       <c r="B5987">
-        <v>271.7794277025986</v>
+        <v>271.7794277025985</v>
       </c>
     </row>
     <row r="5988" spans="1:2">
@@ -48247,7 +48247,7 @@
         <v>5988</v>
       </c>
       <c r="B5988">
-        <v>278.1906497443542</v>
+        <v>278.1906497443541</v>
       </c>
     </row>
     <row r="5989" spans="1:2">
@@ -48255,7 +48255,7 @@
         <v>5989</v>
       </c>
       <c r="B5989">
-        <v>289.4041338256146</v>
+        <v>289.4041338256145</v>
       </c>
     </row>
     <row r="5990" spans="1:2">
@@ -48303,7 +48303,7 @@
         <v>5995</v>
       </c>
       <c r="B5995">
-        <v>141.3062527878383</v>
+        <v>141.3062527878382</v>
       </c>
     </row>
     <row r="5996" spans="1:2">
@@ -48439,7 +48439,7 @@
         <v>6012</v>
       </c>
       <c r="B6012">
-        <v>122.9547304889422</v>
+        <v>122.9547304889421</v>
       </c>
     </row>
     <row r="6013" spans="1:2">
@@ -48519,7 +48519,7 @@
         <v>6022</v>
       </c>
       <c r="B6022">
-        <v>121.8135118643949</v>
+        <v>121.8135118643948</v>
       </c>
     </row>
     <row r="6023" spans="1:2">
@@ -48599,7 +48599,7 @@
         <v>6032</v>
       </c>
       <c r="B6032">
-        <v>92.16937630379979</v>
+        <v>92.16937630379978</v>
       </c>
     </row>
     <row r="6033" spans="1:2">
@@ -48823,7 +48823,7 @@
         <v>6060</v>
       </c>
       <c r="B6060">
-        <v>133.2802093230587</v>
+        <v>133.2802093230586</v>
       </c>
     </row>
     <row r="6061" spans="1:2">
@@ -48959,7 +48959,7 @@
         <v>6077</v>
       </c>
       <c r="B6077">
-        <v>66.21647047514436</v>
+        <v>66.21647047514435</v>
       </c>
     </row>
     <row r="6078" spans="1:2">
@@ -49143,7 +49143,7 @@
         <v>6100</v>
       </c>
       <c r="B6100">
-        <v>66.18804258439421</v>
+        <v>66.1880425843942</v>
       </c>
     </row>
     <row r="6101" spans="1:2">
@@ -49159,7 +49159,7 @@
         <v>6102</v>
       </c>
       <c r="B6102">
-        <v>61.21404091623386</v>
+        <v>61.21404091623385</v>
       </c>
     </row>
     <row r="6103" spans="1:2">
@@ -49303,7 +49303,7 @@
         <v>6120</v>
       </c>
       <c r="B6120">
-        <v>80.30703294294318</v>
+        <v>80.30703294294317</v>
       </c>
     </row>
     <row r="6121" spans="1:2">
@@ -49479,7 +49479,7 @@
         <v>6142</v>
       </c>
       <c r="B6142">
-        <v>97.36874960069072</v>
+        <v>97.36874960069071</v>
       </c>
     </row>
     <row r="6143" spans="1:2">
@@ -49487,7 +49487,7 @@
         <v>6143</v>
       </c>
       <c r="B6143">
-        <v>93.46094037118034</v>
+        <v>93.46094037118031</v>
       </c>
     </row>
     <row r="6144" spans="1:2">
@@ -49535,7 +49535,7 @@
         <v>6149</v>
       </c>
       <c r="B6149">
-        <v>71.99934821001003</v>
+        <v>71.99934821001001</v>
       </c>
     </row>
     <row r="6150" spans="1:2">
@@ -49631,7 +49631,7 @@
         <v>6161</v>
       </c>
       <c r="B6161">
-        <v>237.0897811404098</v>
+        <v>237.0897811404097</v>
       </c>
     </row>
     <row r="6162" spans="1:2">
@@ -49887,7 +49887,7 @@
         <v>6193</v>
       </c>
       <c r="B6193">
-        <v>93.21388148558884</v>
+        <v>93.2138814855888</v>
       </c>
     </row>
     <row r="6194" spans="1:2">
@@ -49903,7 +49903,7 @@
         <v>6195</v>
       </c>
       <c r="B6195">
-        <v>82.27412575443813</v>
+        <v>82.27412575443812</v>
       </c>
     </row>
     <row r="6196" spans="1:2">
@@ -49959,7 +49959,7 @@
         <v>6202</v>
       </c>
       <c r="B6202">
-        <v>78.4167247435775</v>
+        <v>78.41672474357749</v>
       </c>
     </row>
     <row r="6203" spans="1:2">
@@ -50095,7 +50095,7 @@
         <v>6219</v>
       </c>
       <c r="B6219">
-        <v>99.39738733030455</v>
+        <v>99.39738733030454</v>
       </c>
     </row>
     <row r="6220" spans="1:2">
@@ -50159,7 +50159,7 @@
         <v>6227</v>
       </c>
       <c r="B6227">
-        <v>156.4372174428849</v>
+        <v>156.4372174428848</v>
       </c>
     </row>
     <row r="6228" spans="1:2">
@@ -50191,7 +50191,7 @@
         <v>6231</v>
       </c>
       <c r="B6231">
-        <v>244.7110935007981</v>
+        <v>244.711093500798</v>
       </c>
     </row>
     <row r="6232" spans="1:2">
@@ -50359,7 +50359,7 @@
         <v>6252</v>
       </c>
       <c r="B6252">
-        <v>203.6761658805525</v>
+        <v>203.6761658805524</v>
       </c>
     </row>
     <row r="6253" spans="1:2">
@@ -50463,7 +50463,7 @@
         <v>6265</v>
       </c>
       <c r="B6265">
-        <v>104.7113514033121</v>
+        <v>104.711351403312</v>
       </c>
     </row>
     <row r="6266" spans="1:2">
@@ -50479,7 +50479,7 @@
         <v>6267</v>
       </c>
       <c r="B6267">
-        <v>92.44427693806414</v>
+        <v>92.44427693806412</v>
       </c>
     </row>
     <row r="6268" spans="1:2">
@@ -50591,7 +50591,7 @@
         <v>6281</v>
       </c>
       <c r="B6281">
-        <v>169.8932811119819</v>
+        <v>169.8932811119818</v>
       </c>
     </row>
     <row r="6282" spans="1:2">
@@ -50639,7 +50639,7 @@
         <v>6287</v>
       </c>
       <c r="B6287">
-        <v>55.66532694125861</v>
+        <v>55.6653269412586</v>
       </c>
     </row>
     <row r="6288" spans="1:2">
@@ -50647,7 +50647,7 @@
         <v>6288</v>
       </c>
       <c r="B6288">
-        <v>47.73687613235323</v>
+        <v>47.73687613235322</v>
       </c>
     </row>
     <row r="6289" spans="1:2">
@@ -50663,7 +50663,7 @@
         <v>6290</v>
       </c>
       <c r="B6290">
-        <v>33.39339335818967</v>
+        <v>33.39339335818966</v>
       </c>
     </row>
     <row r="6291" spans="1:2">
@@ -50823,7 +50823,7 @@
         <v>6310</v>
       </c>
       <c r="B6310">
-        <v>49.99909147978016</v>
+        <v>49.99909147978015</v>
       </c>
     </row>
     <row r="6311" spans="1:2">
@@ -51007,7 +51007,7 @@
         <v>6333</v>
       </c>
       <c r="B6333">
-        <v>57.42023632076274</v>
+        <v>57.42023632076273</v>
       </c>
     </row>
     <row r="6334" spans="1:2">
@@ -51111,7 +51111,7 @@
         <v>6346</v>
       </c>
       <c r="B6346">
-        <v>26.15858308358797</v>
+        <v>26.15858308358796</v>
       </c>
     </row>
     <row r="6347" spans="1:2">
@@ -51143,7 +51143,7 @@
         <v>6350</v>
       </c>
       <c r="B6350">
-        <v>56.18728646111446</v>
+        <v>56.18728646111445</v>
       </c>
     </row>
     <row r="6351" spans="1:2">
@@ -51167,7 +51167,7 @@
         <v>6353</v>
       </c>
       <c r="B6353">
-        <v>68.44322422689326</v>
+        <v>68.44322422689325</v>
       </c>
     </row>
     <row r="6354" spans="1:2">
@@ -51183,7 +51183,7 @@
         <v>6355</v>
       </c>
       <c r="B6355">
-        <v>67.8060877888435</v>
+        <v>67.80608778884348</v>
       </c>
     </row>
     <row r="6356" spans="1:2">
@@ -51191,7 +51191,7 @@
         <v>6356</v>
       </c>
       <c r="B6356">
-        <v>63.95278977252413</v>
+        <v>63.95278977252412</v>
       </c>
     </row>
     <row r="6357" spans="1:2">
@@ -51335,7 +51335,7 @@
         <v>6374</v>
       </c>
       <c r="B6374">
-        <v>56.09848593640008</v>
+        <v>56.09848593640007</v>
       </c>
     </row>
     <row r="6375" spans="1:2">
@@ -51343,7 +51343,7 @@
         <v>6375</v>
       </c>
       <c r="B6375">
-        <v>61.88370823957503</v>
+        <v>61.88370823957502</v>
       </c>
     </row>
     <row r="6376" spans="1:2">
@@ -51367,7 +51367,7 @@
         <v>6378</v>
       </c>
       <c r="B6378">
-        <v>67.34450090295188</v>
+        <v>67.34450090295186</v>
       </c>
     </row>
     <row r="6379" spans="1:2">
@@ -51407,7 +51407,7 @@
         <v>6383</v>
       </c>
       <c r="B6383">
-        <v>45.49488268659394</v>
+        <v>45.49488268659393</v>
       </c>
     </row>
     <row r="6384" spans="1:2">
@@ -51519,7 +51519,7 @@
         <v>6397</v>
       </c>
       <c r="B6397">
-        <v>58.12126224524068</v>
+        <v>58.12126224524067</v>
       </c>
     </row>
     <row r="6398" spans="1:2">
@@ -51527,7 +51527,7 @@
         <v>6398</v>
       </c>
       <c r="B6398">
-        <v>71.0389544163168</v>
+        <v>71.03895441631678</v>
       </c>
     </row>
     <row r="6399" spans="1:2">
@@ -51591,7 +51591,7 @@
         <v>6406</v>
       </c>
       <c r="B6406">
-        <v>61.49187226088481</v>
+        <v>61.4918722608848</v>
       </c>
     </row>
     <row r="6407" spans="1:2">
@@ -51703,7 +51703,7 @@
         <v>6420</v>
       </c>
       <c r="B6420">
-        <v>62.21282701599172</v>
+        <v>62.21282701599171</v>
       </c>
     </row>
     <row r="6421" spans="1:2">
@@ -51719,7 +51719,7 @@
         <v>6422</v>
       </c>
       <c r="B6422">
-        <v>88.70205284539742</v>
+        <v>88.7020528453974</v>
       </c>
     </row>
     <row r="6423" spans="1:2">
@@ -51767,7 +51767,7 @@
         <v>6428</v>
       </c>
       <c r="B6428">
-        <v>78.38683149763405</v>
+        <v>78.38683149763403</v>
       </c>
     </row>
     <row r="6429" spans="1:2">
@@ -51839,7 +51839,7 @@
         <v>6437</v>
       </c>
       <c r="B6437">
-        <v>37.32699283910225</v>
+        <v>37.32699283910224</v>
       </c>
     </row>
     <row r="6438" spans="1:2">
@@ -51863,7 +51863,7 @@
         <v>6440</v>
       </c>
       <c r="B6440">
-        <v>42.3358699608633</v>
+        <v>42.33586996086329</v>
       </c>
     </row>
     <row r="6441" spans="1:2">
@@ -51927,7 +51927,7 @@
         <v>6448</v>
       </c>
       <c r="B6448">
-        <v>188.3769784493143</v>
+        <v>188.3769784493142</v>
       </c>
     </row>
     <row r="6449" spans="1:2">
@@ -51999,7 +51999,7 @@
         <v>6457</v>
       </c>
       <c r="B6457">
-        <v>65.50254942496532</v>
+        <v>65.50254942496531</v>
       </c>
     </row>
     <row r="6458" spans="1:2">
@@ -52143,7 +52143,7 @@
         <v>6475</v>
       </c>
       <c r="B6475">
-        <v>93.95242050301542</v>
+        <v>93.9524205030154</v>
       </c>
     </row>
     <row r="6476" spans="1:2">
@@ -52223,7 +52223,7 @@
         <v>6485</v>
       </c>
       <c r="B6485">
-        <v>68.00947908967447</v>
+        <v>68.00947908967446</v>
       </c>
     </row>
     <row r="6486" spans="1:2">
@@ -52711,7 +52711,7 @@
         <v>6546</v>
       </c>
       <c r="B6546">
-        <v>111.1770846582587</v>
+        <v>111.1770846582586</v>
       </c>
     </row>
     <row r="6547" spans="1:2">
@@ -52751,7 +52751,7 @@
         <v>6551</v>
       </c>
       <c r="B6551">
-        <v>93.95242050301542</v>
+        <v>93.9524205030154</v>
       </c>
     </row>
     <row r="6552" spans="1:2">
@@ -52839,7 +52839,7 @@
         <v>6562</v>
       </c>
       <c r="B6562">
-        <v>34.20373478008829</v>
+        <v>34.20373478008828</v>
       </c>
     </row>
     <row r="6563" spans="1:2">
@@ -52959,7 +52959,7 @@
         <v>6577</v>
       </c>
       <c r="B6577">
-        <v>23.61534191718868</v>
+        <v>23.61534191718867</v>
       </c>
     </row>
     <row r="6578" spans="1:2">
@@ -52967,7 +52967,7 @@
         <v>6578</v>
       </c>
       <c r="B6578">
-        <v>21.09302602294981</v>
+        <v>21.0930260229498</v>
       </c>
     </row>
     <row r="6579" spans="1:2">
@@ -53071,7 +53071,7 @@
         <v>6591</v>
       </c>
       <c r="B6591">
-        <v>83.09941379930848</v>
+        <v>83.09941379930846</v>
       </c>
     </row>
     <row r="6592" spans="1:2">
@@ -53079,7 +53079,7 @@
         <v>6592</v>
       </c>
       <c r="B6592">
-        <v>86.69715386991516</v>
+        <v>86.69715386991514</v>
       </c>
     </row>
     <row r="6593" spans="1:2">
@@ -53087,7 +53087,7 @@
         <v>6593</v>
       </c>
       <c r="B6593">
-        <v>66.34835244254197</v>
+        <v>66.34835244254195</v>
       </c>
     </row>
     <row r="6594" spans="1:2">
@@ -53191,7 +53191,7 @@
         <v>6606</v>
       </c>
       <c r="B6606">
-        <v>7.731946677482942</v>
+        <v>7.731946677482941</v>
       </c>
     </row>
     <row r="6607" spans="1:2">
@@ -53199,7 +53199,7 @@
         <v>6607</v>
       </c>
       <c r="B6607">
-        <v>9.777553220235268</v>
+        <v>9.777553220235266</v>
       </c>
     </row>
     <row r="6608" spans="1:2">
@@ -53231,7 +53231,7 @@
         <v>6611</v>
       </c>
       <c r="B6611">
-        <v>24.53936559498404</v>
+        <v>24.53936559498403</v>
       </c>
     </row>
     <row r="6612" spans="1:2">
@@ -53279,7 +53279,7 @@
         <v>6617</v>
       </c>
       <c r="B6617">
-        <v>60.52122098083844</v>
+        <v>60.52122098083843</v>
       </c>
     </row>
     <row r="6618" spans="1:2">
@@ -53287,7 +53287,7 @@
         <v>6618</v>
       </c>
       <c r="B6618">
-        <v>50.11368225589674</v>
+        <v>50.11368225589673</v>
       </c>
     </row>
     <row r="6619" spans="1:2">
@@ -53431,7 +53431,7 @@
         <v>6636</v>
       </c>
       <c r="B6636">
-        <v>41.82123721697398</v>
+        <v>41.82123721697397</v>
       </c>
     </row>
     <row r="6637" spans="1:2">
@@ -53439,7 +53439,7 @@
         <v>6637</v>
       </c>
       <c r="B6637">
-        <v>51.4105216019732</v>
+        <v>51.41052160197319</v>
       </c>
     </row>
     <row r="6638" spans="1:2">
@@ -53463,7 +53463,7 @@
         <v>6640</v>
       </c>
       <c r="B6640">
-        <v>99.58348743985452</v>
+        <v>99.58348743985449</v>
       </c>
     </row>
     <row r="6641" spans="1:2">
@@ -53575,7 +53575,7 @@
         <v>6654</v>
       </c>
       <c r="B6654">
-        <v>23.77697059501041</v>
+        <v>23.7769705950104</v>
       </c>
     </row>
     <row r="6655" spans="1:2">
@@ -53615,7 +53615,7 @@
         <v>6659</v>
       </c>
       <c r="B6659">
-        <v>68.16246217185569</v>
+        <v>68.16246217185568</v>
       </c>
     </row>
     <row r="6660" spans="1:2">
@@ -53631,7 +53631,7 @@
         <v>6661</v>
       </c>
       <c r="B6661">
-        <v>97.25474496665146</v>
+        <v>97.25474496665144</v>
       </c>
     </row>
     <row r="6662" spans="1:2">
@@ -53687,7 +53687,7 @@
         <v>6668</v>
       </c>
       <c r="B6668">
-        <v>59.80759300169806</v>
+        <v>59.80759300169805</v>
       </c>
     </row>
     <row r="6669" spans="1:2">
@@ -53815,7 +53815,7 @@
         <v>6684</v>
       </c>
       <c r="B6684">
-        <v>43.27076657419299</v>
+        <v>43.27076657419298</v>
       </c>
     </row>
     <row r="6685" spans="1:2">
@@ -53911,7 +53911,7 @@
         <v>6696</v>
       </c>
       <c r="B6696">
-        <v>37.70681290520735</v>
+        <v>37.70681290520734</v>
       </c>
     </row>
     <row r="6697" spans="1:2">
@@ -53951,7 +53951,7 @@
         <v>6701</v>
       </c>
       <c r="B6701">
-        <v>20.06329162150931</v>
+        <v>20.0632916215093</v>
       </c>
     </row>
     <row r="6702" spans="1:2">
@@ -54007,7 +54007,7 @@
         <v>6708</v>
       </c>
       <c r="B6708">
-        <v>49.76199700950313</v>
+        <v>49.76199700950312</v>
       </c>
     </row>
     <row r="6709" spans="1:2">
@@ -54055,7 +54055,7 @@
         <v>6714</v>
       </c>
       <c r="B6714">
-        <v>78.96447451483556</v>
+        <v>78.96447451483554</v>
       </c>
     </row>
     <row r="6715" spans="1:2">
@@ -54071,7 +54071,7 @@
         <v>6716</v>
       </c>
       <c r="B6716">
-        <v>73.3392689987697</v>
+        <v>73.33926899876968</v>
       </c>
     </row>
     <row r="6717" spans="1:2">
@@ -54079,7 +54079,7 @@
         <v>6717</v>
       </c>
       <c r="B6717">
-        <v>71.1177905257167</v>
+        <v>71.11779052571669</v>
       </c>
     </row>
     <row r="6718" spans="1:2">
@@ -54095,7 +54095,7 @@
         <v>6719</v>
       </c>
       <c r="B6719">
-        <v>65.14617504195313</v>
+        <v>65.14617504195311</v>
       </c>
     </row>
     <row r="6720" spans="1:2">
@@ -54471,7 +54471,7 @@
         <v>6766</v>
       </c>
       <c r="B6766">
-        <v>41.85933645199995</v>
+        <v>41.85933645199994</v>
       </c>
     </row>
     <row r="6767" spans="1:2">
@@ -54591,7 +54591,7 @@
         <v>6781</v>
       </c>
       <c r="B6781">
-        <v>44.75341295878074</v>
+        <v>44.75341295878073</v>
       </c>
     </row>
     <row r="6782" spans="1:2">
@@ -54703,7 +54703,7 @@
         <v>6795</v>
       </c>
       <c r="B6795">
-        <v>14.14604081541742</v>
+        <v>14.14604081541741</v>
       </c>
     </row>
     <row r="6796" spans="1:2">
@@ -54783,7 +54783,7 @@
         <v>6805</v>
       </c>
       <c r="B6805">
-        <v>35.43404700038862</v>
+        <v>35.43404700038861</v>
       </c>
     </row>
     <row r="6806" spans="1:2">
@@ -54895,7 +54895,7 @@
         <v>6819</v>
       </c>
       <c r="B6819">
-        <v>9.30890332231191</v>
+        <v>9.308903322311908</v>
       </c>
     </row>
     <row r="6820" spans="1:2">
@@ -54919,7 +54919,7 @@
         <v>6822</v>
       </c>
       <c r="B6822">
-        <v>6.400437027532853</v>
+        <v>6.400437027532852</v>
       </c>
     </row>
     <row r="6823" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>24.22226273115246</v>
+        <v>24.22226273115245</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -54975,7 +54975,7 @@
         <v>6829</v>
       </c>
       <c r="B6829">
-        <v>30.49609306998361</v>
+        <v>30.4960930699836</v>
       </c>
     </row>
     <row r="6830" spans="1:2">
@@ -55263,7 +55263,7 @@
         <v>6865</v>
       </c>
       <c r="B6865">
-        <v>5.887797166706427</v>
+        <v>5.887797166706426</v>
       </c>
     </row>
     <row r="6866" spans="1:2">
@@ -55271,7 +55271,7 @@
         <v>6866</v>
       </c>
       <c r="B6866">
-        <v>2.752262361882947</v>
+        <v>2.752262361882946</v>
       </c>
     </row>
     <row r="6867" spans="1:2">
@@ -55455,7 +55455,7 @@
         <v>6889</v>
       </c>
       <c r="B6889">
-        <v>0.6609455292306123</v>
+        <v>0.6609455292306122</v>
       </c>
     </row>
     <row r="6890" spans="1:2">
@@ -55511,7 +55511,7 @@
         <v>6896</v>
       </c>
       <c r="B6896">
-        <v>6.713231747096106</v>
+        <v>6.713231747096105</v>
       </c>
     </row>
     <row r="6897" spans="1:2">
@@ -55647,7 +55647,7 @@
         <v>6913</v>
       </c>
       <c r="B6913">
-        <v>12.49484927649553</v>
+        <v>12.49484927649552</v>
       </c>
     </row>
     <row r="6914" spans="1:2">
@@ -55743,7 +55743,7 @@
         <v>6925</v>
       </c>
       <c r="B6925">
-        <v>39.1106231803952</v>
+        <v>39.11062318039519</v>
       </c>
     </row>
     <row r="6926" spans="1:2">
@@ -55935,7 +55935,7 @@
         <v>6949</v>
       </c>
       <c r="B6949">
-        <v>38.7231832672849</v>
+        <v>38.72318326728489</v>
       </c>
     </row>
     <row r="6950" spans="1:2">
@@ -55967,7 +55967,7 @@
         <v>6953</v>
       </c>
       <c r="B6953">
-        <v>58.02923793910102</v>
+        <v>58.02923793910101</v>
       </c>
     </row>
     <row r="6954" spans="1:2">
@@ -56079,7 +56079,7 @@
         <v>6967</v>
       </c>
       <c r="B6967">
-        <v>17.61368665196232</v>
+        <v>17.61368665196231</v>
       </c>
     </row>
     <row r="6968" spans="1:2">
@@ -56319,7 +56319,7 @@
         <v>6997</v>
       </c>
       <c r="B6997">
-        <v>97.55748734958864</v>
+        <v>97.5574873495886</v>
       </c>
     </row>
     <row r="6998" spans="1:2">
@@ -56359,7 +56359,7 @@
         <v>7002</v>
       </c>
       <c r="B7002">
-        <v>74.8957692851001</v>
+        <v>74.89576928510009</v>
       </c>
     </row>
     <row r="7003" spans="1:2">
@@ -56455,7 +56455,7 @@
         <v>7014</v>
       </c>
       <c r="B7014">
-        <v>30.17899020615204</v>
+        <v>30.17899020615203</v>
       </c>
     </row>
     <row r="7015" spans="1:2">
@@ -56551,7 +56551,7 @@
         <v>7026</v>
       </c>
       <c r="B7026">
-        <v>69.98448481921328</v>
+        <v>69.98448481921326</v>
       </c>
     </row>
     <row r="7027" spans="1:2">
@@ -56559,7 +56559,7 @@
         <v>7027</v>
       </c>
       <c r="B7027">
-        <v>67.22258335086876</v>
+        <v>67.22258335086875</v>
       </c>
     </row>
     <row r="7028" spans="1:2">
@@ -56599,7 +56599,7 @@
         <v>7032</v>
       </c>
       <c r="B7032">
-        <v>47.93059608890838</v>
+        <v>47.93059608890837</v>
       </c>
     </row>
     <row r="7033" spans="1:2">
@@ -56679,7 +56679,7 @@
         <v>7042</v>
       </c>
       <c r="B7042">
-        <v>35.66322855262179</v>
+        <v>35.66322855262178</v>
       </c>
     </row>
     <row r="7043" spans="1:2">
@@ -56743,7 +56743,7 @@
         <v>7050</v>
       </c>
       <c r="B7050">
-        <v>63.73884791430135</v>
+        <v>63.73884791430134</v>
       </c>
     </row>
     <row r="7051" spans="1:2">
@@ -56839,7 +56839,7 @@
         <v>7062</v>
       </c>
       <c r="B7062">
-        <v>25.73345423490582</v>
+        <v>25.73345423490581</v>
       </c>
     </row>
     <row r="7063" spans="1:2">
@@ -56879,7 +56879,7 @@
         <v>7067</v>
       </c>
       <c r="B7067">
-        <v>59.51452196303672</v>
+        <v>59.51452196303671</v>
       </c>
     </row>
     <row r="7068" spans="1:2">
@@ -56887,7 +56887,7 @@
         <v>7068</v>
       </c>
       <c r="B7068">
-        <v>70.75145172739002</v>
+        <v>70.75145172739001</v>
       </c>
     </row>
     <row r="7069" spans="1:2">
@@ -56943,7 +56943,7 @@
         <v>7075</v>
       </c>
       <c r="B7075">
-        <v>73.63527074781766</v>
+        <v>73.63527074781764</v>
       </c>
     </row>
     <row r="7076" spans="1:2">
@@ -56967,7 +56967,7 @@
         <v>7078</v>
       </c>
       <c r="B7078">
-        <v>61.64690684033666</v>
+        <v>61.64690684033665</v>
       </c>
     </row>
     <row r="7079" spans="1:2">
@@ -56975,7 +56975,7 @@
         <v>7079</v>
       </c>
       <c r="B7079">
-        <v>56.6919547896893</v>
+        <v>56.69195478968929</v>
       </c>
     </row>
     <row r="7080" spans="1:2">
@@ -56999,7 +56999,7 @@
         <v>7082</v>
       </c>
       <c r="B7082">
-        <v>46.2389900537551</v>
+        <v>46.23899005375509</v>
       </c>
     </row>
     <row r="7083" spans="1:2">
@@ -57151,7 +57151,7 @@
         <v>7101</v>
       </c>
       <c r="B7101">
-        <v>82.92386424715033</v>
+        <v>82.92386424715032</v>
       </c>
     </row>
     <row r="7102" spans="1:2">
@@ -57159,7 +57159,7 @@
         <v>7102</v>
       </c>
       <c r="B7102">
-        <v>79.25051184856903</v>
+        <v>79.25051184856902</v>
       </c>
     </row>
     <row r="7103" spans="1:2">
@@ -57175,7 +57175,7 @@
         <v>7104</v>
       </c>
       <c r="B7104">
-        <v>72.67692845139506</v>
+        <v>72.67692845139504</v>
       </c>
     </row>
     <row r="7105" spans="1:2">
@@ -57255,7 +57255,7 @@
         <v>7114</v>
       </c>
       <c r="B7114">
-        <v>96.86994269288913</v>
+        <v>96.8699426928891</v>
       </c>
     </row>
     <row r="7115" spans="1:2">
@@ -57327,7 +57327,7 @@
         <v>7123</v>
       </c>
       <c r="B7123">
-        <v>88.37029642963277</v>
+        <v>88.37029642963276</v>
       </c>
     </row>
     <row r="7124" spans="1:2">
@@ -57351,7 +57351,7 @@
         <v>7126</v>
       </c>
       <c r="B7126">
-        <v>69.69112070951327</v>
+        <v>69.69112070951326</v>
       </c>
     </row>
     <row r="7127" spans="1:2">
@@ -57519,7 +57519,7 @@
         <v>7147</v>
       </c>
       <c r="B7147">
-        <v>62.6914120221257</v>
+        <v>62.69141202212569</v>
       </c>
     </row>
     <row r="7148" spans="1:2">
@@ -57599,7 +57599,7 @@
         <v>7157</v>
       </c>
       <c r="B7157">
-        <v>8.175714844223952</v>
+        <v>8.17571484422395</v>
       </c>
     </row>
     <row r="7158" spans="1:2">
@@ -57615,7 +57615,7 @@
         <v>7159</v>
       </c>
       <c r="B7159">
-        <v>8.001191040701121</v>
+        <v>8.001191040701119</v>
       </c>
     </row>
     <row r="7160" spans="1:2">
@@ -57711,7 +57711,7 @@
         <v>7171</v>
       </c>
       <c r="B7171">
-        <v>39.71933172769481</v>
+        <v>39.7193317276948</v>
       </c>
     </row>
     <row r="7172" spans="1:2">
@@ -57767,7 +57767,7 @@
         <v>7178</v>
       </c>
       <c r="B7178">
-        <v>8.731084462487201</v>
+        <v>8.7310844624872</v>
       </c>
     </row>
     <row r="7179" spans="1:2">
@@ -57775,7 +57775,7 @@
         <v>7179</v>
       </c>
       <c r="B7179">
-        <v>5.877041459587556</v>
+        <v>5.877041459587555</v>
       </c>
     </row>
     <row r="7180" spans="1:2">
@@ -57903,7 +57903,7 @@
         <v>7195</v>
       </c>
       <c r="B7195">
-        <v>34.85083563345254</v>
+        <v>34.85083563345253</v>
       </c>
     </row>
     <row r="7196" spans="1:2">
@@ -57959,7 +57959,7 @@
         <v>7202</v>
       </c>
       <c r="B7202">
-        <v>11.75883067000143</v>
+        <v>11.75883067000142</v>
       </c>
     </row>
     <row r="7203" spans="1:2">
@@ -57967,7 +57967,7 @@
         <v>7203</v>
       </c>
       <c r="B7203">
-        <v>9.537381504052297</v>
+        <v>9.537381504052291</v>
       </c>
     </row>
     <row r="7204" spans="1:2">
@@ -58039,7 +58039,7 @@
         <v>7212</v>
       </c>
       <c r="B7212">
-        <v>16.29530658454426</v>
+        <v>16.29530658454425</v>
       </c>
     </row>
     <row r="7213" spans="1:2">
@@ -58263,7 +58263,7 @@
         <v>7240</v>
       </c>
       <c r="B7240">
-        <v>45.26540806332211</v>
+        <v>45.2654080633221</v>
       </c>
     </row>
     <row r="7241" spans="1:2">
@@ -58543,7 +58543,7 @@
         <v>7275</v>
       </c>
       <c r="B7275">
-        <v>3.140168257944717</v>
+        <v>3.140168257944716</v>
       </c>
     </row>
     <row r="7276" spans="1:2">
@@ -58615,7 +58615,7 @@
         <v>7284</v>
       </c>
       <c r="B7284">
-        <v>21.35160260036072</v>
+        <v>21.35160260036071</v>
       </c>
     </row>
     <row r="7285" spans="1:2">
@@ -58751,7 +58751,7 @@
         <v>7301</v>
       </c>
       <c r="B7301">
-        <v>6.774512901280193</v>
+        <v>6.774512901280192</v>
       </c>
     </row>
     <row r="7302" spans="1:2">
@@ -59039,7 +59039,7 @@
         <v>7337</v>
       </c>
       <c r="B7337">
-        <v>31.64756918088404</v>
+        <v>31.64756918088403</v>
       </c>
     </row>
     <row r="7338" spans="1:2">
@@ -59287,7 +59287,7 @@
         <v>7368</v>
       </c>
       <c r="B7368">
-        <v>8.143828715217598</v>
+        <v>8.143828715217596</v>
       </c>
     </row>
     <row r="7369" spans="1:2">
@@ -59319,7 +59319,7 @@
         <v>7372</v>
       </c>
       <c r="B7372">
-        <v>0.6587006050744665</v>
+        <v>0.6587006050744664</v>
       </c>
     </row>
     <row r="7373" spans="1:2">
@@ -59551,7 +59551,7 @@
         <v>7401</v>
       </c>
       <c r="B7401">
-        <v>5.060838616915709</v>
+        <v>5.060838616915708</v>
       </c>
     </row>
     <row r="7402" spans="1:2">
@@ -59639,7 +59639,7 @@
         <v>7412</v>
       </c>
       <c r="B7412">
-        <v>34.87603974277742</v>
+        <v>34.87603974277741</v>
       </c>
     </row>
     <row r="7413" spans="1:2">
@@ -59711,7 +59711,7 @@
         <v>7421</v>
       </c>
       <c r="B7421">
-        <v>7.737749484048437</v>
+        <v>7.737749484048436</v>
       </c>
     </row>
     <row r="7422" spans="1:2">
@@ -59815,7 +59815,7 @@
         <v>7434</v>
       </c>
       <c r="B7434">
-        <v>55.4765891923607</v>
+        <v>55.47658919236069</v>
       </c>
     </row>
     <row r="7435" spans="1:2">
@@ -59903,7 +59903,7 @@
         <v>7445</v>
       </c>
       <c r="B7445">
-        <v>16.80782921695522</v>
+        <v>16.80782921695521</v>
       </c>
     </row>
     <row r="7446" spans="1:2">
@@ -59919,7 +59919,7 @@
         <v>7447</v>
       </c>
       <c r="B7447">
-        <v>16.80495712077634</v>
+        <v>16.80495712077633</v>
       </c>
     </row>
     <row r="7448" spans="1:2">
@@ -60007,7 +60007,7 @@
         <v>7458</v>
       </c>
       <c r="B7458">
-        <v>56.65883776232057</v>
+        <v>56.65883776232056</v>
       </c>
     </row>
     <row r="7459" spans="1:2">
@@ -60015,7 +60015,7 @@
         <v>7459</v>
       </c>
       <c r="B7459">
-        <v>51.73172746034603</v>
+        <v>51.73172746034602</v>
       </c>
     </row>
     <row r="7460" spans="1:2">
@@ -60255,7 +60255,7 @@
         <v>7489</v>
       </c>
       <c r="B7489">
-        <v>6.973771900466042</v>
+        <v>6.973771900466041</v>
       </c>
     </row>
     <row r="7490" spans="1:2">
@@ -60319,7 +60319,7 @@
         <v>7497</v>
       </c>
       <c r="B7497">
-        <v>5.372783430466845</v>
+        <v>5.372783430466844</v>
       </c>
     </row>
     <row r="7498" spans="1:2">
@@ -60335,7 +60335,7 @@
         <v>7499</v>
       </c>
       <c r="B7499">
-        <v>7.908375442757072</v>
+        <v>7.908375442757071</v>
       </c>
     </row>
     <row r="7500" spans="1:2">
@@ -60359,7 +60359,7 @@
         <v>7502</v>
       </c>
       <c r="B7502">
-        <v>11.90234755763389</v>
+        <v>11.90234755763388</v>
       </c>
     </row>
     <row r="7503" spans="1:2">
@@ -60407,7 +60407,7 @@
         <v>7508</v>
       </c>
       <c r="B7508">
-        <v>8.139374035429945</v>
+        <v>8.139374035429944</v>
       </c>
     </row>
     <row r="7509" spans="1:2">
@@ -60423,7 +60423,7 @@
         <v>7510</v>
       </c>
       <c r="B7510">
-        <v>2.155833491103243</v>
+        <v>2.155833491103242</v>
       </c>
     </row>
     <row r="7511" spans="1:2">
@@ -60751,7 +60751,7 @@
         <v>7551</v>
       </c>
       <c r="B7551">
-        <v>0.8656527190251755</v>
+        <v>0.8656527190251754</v>
       </c>
     </row>
     <row r="7552" spans="1:2">
@@ -61511,7 +61511,7 @@
         <v>7646</v>
       </c>
       <c r="B7646">
-        <v>21.31473426369712</v>
+        <v>21.31473426369711</v>
       </c>
     </row>
     <row r="7647" spans="1:2">
@@ -61551,7 +61551,7 @@
         <v>7651</v>
       </c>
       <c r="B7651">
-        <v>22.48590474839559</v>
+        <v>22.48590474839558</v>
       </c>
     </row>
     <row r="7652" spans="1:2">
@@ -61559,7 +61559,7 @@
         <v>7652</v>
       </c>
       <c r="B7652">
-        <v>18.76800555193776</v>
+        <v>18.76800555193775</v>
       </c>
     </row>
     <row r="7653" spans="1:2">
@@ -61663,7 +61663,7 @@
         <v>7665</v>
       </c>
       <c r="B7665">
-        <v>5.802161809209582</v>
+        <v>5.802161809209581</v>
       </c>
     </row>
     <row r="7666" spans="1:2">
@@ -61759,7 +61759,7 @@
         <v>7677</v>
       </c>
       <c r="B7677">
-        <v>12.79343005068371</v>
+        <v>12.7934300506837</v>
       </c>
     </row>
     <row r="7678" spans="1:2">
@@ -61903,7 +61903,7 @@
         <v>7695</v>
       </c>
       <c r="B7695">
-        <v>3.919590685264565</v>
+        <v>3.919590685264564</v>
       </c>
     </row>
     <row r="7696" spans="1:2">
@@ -61927,7 +61927,7 @@
         <v>7698</v>
       </c>
       <c r="B7698">
-        <v>3.919590685264565</v>
+        <v>3.919590685264564</v>
       </c>
     </row>
     <row r="7699" spans="1:2">
@@ -61935,7 +61935,7 @@
         <v>7699</v>
       </c>
       <c r="B7699">
-        <v>3.919590685264565</v>
+        <v>3.919590685264564</v>
       </c>
     </row>
     <row r="7700" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>29.39795588811955</v>
+        <v>29.39795588811954</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62367,7 +62367,7 @@
         <v>7753</v>
       </c>
       <c r="B7753">
-        <v>12.87812758085684</v>
+        <v>12.87812758085683</v>
       </c>
     </row>
     <row r="7754" spans="1:2">
@@ -62399,7 +62399,7 @@
         <v>7757</v>
       </c>
       <c r="B7757">
-        <v>6.01197136578724</v>
+        <v>6.011971365787239</v>
       </c>
     </row>
     <row r="7758" spans="1:2">
@@ -62447,7 +62447,7 @@
         <v>7763</v>
       </c>
       <c r="B7763">
-        <v>23.27558466206858</v>
+        <v>23.27558466206857</v>
       </c>
     </row>
     <row r="7764" spans="1:2">
@@ -62511,7 +62511,7 @@
         <v>7771</v>
       </c>
       <c r="B7771">
-        <v>40.08098138940291</v>
+        <v>40.0809813894029</v>
       </c>
     </row>
     <row r="7772" spans="1:2">
@@ -62543,7 +62543,7 @@
         <v>7775</v>
       </c>
       <c r="B7775">
-        <v>18.45606073838663</v>
+        <v>18.45606073838662</v>
       </c>
     </row>
     <row r="7776" spans="1:2">
@@ -62567,7 +62567,7 @@
         <v>7778</v>
       </c>
       <c r="B7778">
-        <v>7.02497141092018</v>
+        <v>7.024971410920179</v>
       </c>
     </row>
     <row r="7779" spans="1:2">
@@ -62671,7 +62671,7 @@
         <v>7791</v>
       </c>
       <c r="B7791">
-        <v>41.1076092378336</v>
+        <v>41.10760923783359</v>
       </c>
     </row>
     <row r="7792" spans="1:2">
@@ -62951,7 +62951,7 @@
         <v>7826</v>
       </c>
       <c r="B7826">
-        <v>31.28328187982798</v>
+        <v>31.28328187982797</v>
       </c>
     </row>
     <row r="7827" spans="1:2">
@@ -63079,7 +63079,7 @@
         <v>7842</v>
       </c>
       <c r="B7842">
-        <v>80.54471355529753</v>
+        <v>80.54471355529752</v>
       </c>
     </row>
     <row r="7843" spans="1:2">
@@ -63455,7 +63455,7 @@
         <v>7889</v>
       </c>
       <c r="B7889">
-        <v>41.90007332637388</v>
+        <v>41.90007332637387</v>
       </c>
     </row>
     <row r="7890" spans="1:2">
@@ -63527,7 +63527,7 @@
         <v>7898</v>
       </c>
       <c r="B7898">
-        <v>3.916835817501148</v>
+        <v>3.916835817501147</v>
       </c>
     </row>
     <row r="7899" spans="1:2">
@@ -63647,7 +63647,7 @@
         <v>7913</v>
       </c>
       <c r="B7913">
-        <v>33.16157416660855</v>
+        <v>33.16157416660854</v>
       </c>
     </row>
     <row r="7914" spans="1:2">
@@ -63719,7 +63719,7 @@
         <v>7922</v>
       </c>
       <c r="B7922">
-        <v>5.894361957972442</v>
+        <v>5.894361957972441</v>
       </c>
     </row>
     <row r="7923" spans="1:2">
@@ -63831,7 +63831,7 @@
         <v>7936</v>
       </c>
       <c r="B7936">
-        <v>42.75349619095572</v>
+        <v>42.75349619095571</v>
       </c>
     </row>
     <row r="7937" spans="1:2">
@@ -63855,7 +63855,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>38.54235843643085</v>
+        <v>38.54235843643084</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -63871,7 +63871,7 @@
         <v>7941</v>
       </c>
       <c r="B7941">
-        <v>33.17945149996689</v>
+        <v>33.17945149996688</v>
       </c>
     </row>
     <row r="7942" spans="1:2">
@@ -63879,7 +63879,7 @@
         <v>7942</v>
       </c>
       <c r="B7942">
-        <v>31.92921044903759</v>
+        <v>31.92921044903758</v>
       </c>
     </row>
     <row r="7943" spans="1:2">
@@ -63983,7 +63983,7 @@
         <v>7955</v>
       </c>
       <c r="B7955">
-        <v>53.6372753537221</v>
+        <v>53.63727535372209</v>
       </c>
     </row>
     <row r="7956" spans="1:2">
@@ -64047,7 +64047,7 @@
         <v>7963</v>
       </c>
       <c r="B7963">
-        <v>65.28860756674254</v>
+        <v>65.28860756674253</v>
       </c>
     </row>
     <row r="7964" spans="1:2">
@@ -64175,7 +64175,7 @@
         <v>7979</v>
       </c>
       <c r="B7979">
-        <v>30.42604909174355</v>
+        <v>30.42604909174354</v>
       </c>
     </row>
     <row r="7980" spans="1:2">
@@ -64239,7 +64239,7 @@
         <v>7987</v>
       </c>
       <c r="B7987">
-        <v>54.36321231648625</v>
+        <v>54.36321231648624</v>
       </c>
     </row>
     <row r="7988" spans="1:2">
@@ -64255,7 +64255,7 @@
         <v>7989</v>
       </c>
       <c r="B7989">
-        <v>42.92171896714733</v>
+        <v>42.92171896714732</v>
       </c>
     </row>
     <row r="7990" spans="1:2">
@@ -64375,7 +64375,7 @@
         <v>8004</v>
       </c>
       <c r="B8004">
-        <v>18.93505604397473</v>
+        <v>18.93505604397472</v>
       </c>
     </row>
     <row r="8005" spans="1:2">
@@ -64559,7 +64559,7 @@
         <v>8027</v>
       </c>
       <c r="B8027">
-        <v>0.2245850260628075</v>
+        <v>0.2245850260628074</v>
       </c>
     </row>
     <row r="8028" spans="1:2">
@@ -64751,7 +64751,7 @@
         <v>8051</v>
       </c>
       <c r="B8051">
-        <v>0.4526745956059273</v>
+        <v>0.4526745956059272</v>
       </c>
     </row>
     <row r="8052" spans="1:2">
@@ -64759,7 +64759,7 @@
         <v>8052</v>
       </c>
       <c r="B8052">
-        <v>0.7336300775290127</v>
+        <v>0.7336300775290125</v>
       </c>
     </row>
     <row r="8053" spans="1:2">
@@ -64799,7 +64799,7 @@
         <v>8057</v>
       </c>
       <c r="B8057">
-        <v>0.215542905306989</v>
+        <v>0.2155429053069889</v>
       </c>
     </row>
     <row r="8058" spans="1:2">
@@ -64935,7 +64935,7 @@
         <v>8074</v>
       </c>
       <c r="B8074">
-        <v>6.581818693360359</v>
+        <v>6.581818693360358</v>
       </c>
     </row>
     <row r="8075" spans="1:2">
@@ -65143,7 +65143,7 @@
         <v>8100</v>
       </c>
       <c r="B8100">
-        <v>17.16795490926228</v>
+        <v>17.16795490926227</v>
       </c>
     </row>
     <row r="8101" spans="1:2">
@@ -65215,7 +65215,7 @@
         <v>8109</v>
       </c>
       <c r="B8109">
-        <v>18.37420599728851</v>
+        <v>18.3742059972885</v>
       </c>
     </row>
     <row r="8110" spans="1:2">
@@ -65295,7 +65295,7 @@
         <v>8119</v>
       </c>
       <c r="B8119">
-        <v>12.19448076897152</v>
+        <v>12.19448076897151</v>
       </c>
     </row>
     <row r="8120" spans="1:2">
@@ -65759,7 +65759,7 @@
         <v>8177</v>
       </c>
       <c r="B8177">
-        <v>7.848237265623764</v>
+        <v>7.848237265623763</v>
       </c>
     </row>
     <row r="8178" spans="1:2">
@@ -66247,7 +66247,7 @@
         <v>8238</v>
       </c>
       <c r="B8238">
-        <v>0.0757934458765198</v>
+        <v>0.0757934458765197</v>
       </c>
     </row>
     <row r="8239" spans="1:2">
@@ -66271,7 +66271,7 @@
         <v>8241</v>
       </c>
       <c r="B8241">
-        <v>6.85900528172626</v>
+        <v>6.859005281726259</v>
       </c>
     </row>
     <row r="8242" spans="1:2">
@@ -66279,7 +66279,7 @@
         <v>8242</v>
       </c>
       <c r="B8242">
-        <v>3.945761929017023</v>
+        <v>3.945761929017022</v>
       </c>
     </row>
     <row r="8243" spans="1:2">
@@ -66287,7 +66287,7 @@
         <v>8243</v>
       </c>
       <c r="B8243">
-        <v>8.518490731042261</v>
+        <v>8.51849073104226</v>
       </c>
     </row>
     <row r="8244" spans="1:2">
@@ -66359,7 +66359,7 @@
         <v>8252</v>
       </c>
       <c r="B8252">
-        <v>5.626289878908909</v>
+        <v>5.626289878908908</v>
       </c>
     </row>
     <row r="8253" spans="1:2">
@@ -66519,7 +66519,7 @@
         <v>8272</v>
       </c>
       <c r="B8272">
-        <v>16.77189870761534</v>
+        <v>16.77189870761533</v>
       </c>
     </row>
     <row r="8273" spans="1:2">
@@ -66687,7 +66687,7 @@
         <v>8293</v>
       </c>
       <c r="B8293">
-        <v>7.748886183517568</v>
+        <v>7.748886183517567</v>
       </c>
     </row>
     <row r="8294" spans="1:2">
@@ -66735,7 +66735,7 @@
         <v>8299</v>
       </c>
       <c r="B8299">
-        <v>8.114521611351464</v>
+        <v>8.114521611351462</v>
       </c>
     </row>
     <row r="8300" spans="1:2">
@@ -66751,7 +66751,7 @@
         <v>8301</v>
       </c>
       <c r="B8301">
-        <v>0.7783409951871875</v>
+        <v>0.7783409951871874</v>
       </c>
     </row>
     <row r="8302" spans="1:2">
@@ -66839,7 +66839,7 @@
         <v>8312</v>
       </c>
       <c r="B8312">
-        <v>8.451494691604278</v>
+        <v>8.451494691604276</v>
       </c>
     </row>
     <row r="8313" spans="1:2">
@@ -66943,7 +66943,7 @@
         <v>8325</v>
       </c>
       <c r="B8325">
-        <v>0.9477243326918986</v>
+        <v>0.9477243326918984</v>
       </c>
     </row>
     <row r="8326" spans="1:2">
@@ -67031,7 +67031,7 @@
         <v>8336</v>
       </c>
       <c r="B8336">
-        <v>8.376966726472698</v>
+        <v>8.376966726472697</v>
       </c>
     </row>
     <row r="8337" spans="1:2">
@@ -67711,7 +67711,7 @@
         <v>8421</v>
       </c>
       <c r="B8421">
-        <v>8.118331534854061</v>
+        <v>8.118331534854059</v>
       </c>
     </row>
     <row r="8422" spans="1:2">
@@ -67719,7 +67719,7 @@
         <v>8422</v>
       </c>
       <c r="B8422">
-        <v>5.099670529538337</v>
+        <v>5.099670529538336</v>
       </c>
     </row>
     <row r="8423" spans="1:2">
@@ -67807,7 +67807,7 @@
         <v>8433</v>
       </c>
       <c r="B8433">
-        <v>7.13270432473209</v>
+        <v>7.132704324732089</v>
       </c>
     </row>
     <row r="8434" spans="1:2">
@@ -67815,7 +67815,7 @@
         <v>8434</v>
       </c>
       <c r="B8434">
-        <v>9.949058392059886</v>
+        <v>9.949058392059884</v>
       </c>
     </row>
     <row r="8435" spans="1:2">
@@ -68111,7 +68111,7 @@
         <v>8471</v>
       </c>
       <c r="B8471">
-        <v>3.918594243733116</v>
+        <v>3.918594243733115</v>
       </c>
     </row>
     <row r="8472" spans="1:2">
@@ -68375,7 +68375,7 @@
         <v>8504</v>
       </c>
       <c r="B8504">
-        <v>8.462455548450212</v>
+        <v>8.46245554845021</v>
       </c>
     </row>
     <row r="8505" spans="1:2">
@@ -68383,7 +68383,7 @@
         <v>8505</v>
       </c>
       <c r="B8505">
-        <v>2.567744835941764</v>
+        <v>2.567744835941763</v>
       </c>
     </row>
     <row r="8506" spans="1:2">
@@ -68415,7 +68415,7 @@
         <v>8509</v>
       </c>
       <c r="B8509">
-        <v>8.64078927547564</v>
+        <v>8.640789275475639</v>
       </c>
     </row>
     <row r="8510" spans="1:2">
@@ -68431,7 +68431,7 @@
         <v>8511</v>
       </c>
       <c r="B8511">
-        <v>12.73633981235248</v>
+        <v>12.73633981235247</v>
       </c>
     </row>
     <row r="8512" spans="1:2">
@@ -68799,7 +68799,7 @@
         <v>8557</v>
       </c>
       <c r="B8557">
-        <v>0.1998442620500554</v>
+        <v>0.1998442620500553</v>
       </c>
     </row>
     <row r="8558" spans="1:2">
@@ -68983,7 +68983,7 @@
         <v>8580</v>
       </c>
       <c r="B8580">
-        <v>7.564163507849322</v>
+        <v>7.564163507849321</v>
       </c>
     </row>
     <row r="8581" spans="1:2">
@@ -69039,7 +69039,7 @@
         <v>8587</v>
       </c>
       <c r="B8587">
-        <v>5.36812360095213</v>
+        <v>5.368123600952129</v>
       </c>
     </row>
     <row r="8588" spans="1:2">
@@ -69335,7 +69335,7 @@
         <v>8624</v>
       </c>
       <c r="B8624">
-        <v>7.938913444985585</v>
+        <v>7.938913444985584</v>
       </c>
     </row>
     <row r="8625" spans="1:2">
@@ -69351,7 +69351,7 @@
         <v>8626</v>
       </c>
       <c r="B8626">
-        <v>6.186612397725535</v>
+        <v>6.186612397725534</v>
       </c>
     </row>
     <row r="8627" spans="1:2">
@@ -69439,7 +69439,7 @@
         <v>8637</v>
       </c>
       <c r="B8637">
-        <v>3.919502763952966</v>
+        <v>3.919502763952965</v>
       </c>
     </row>
     <row r="8638" spans="1:2">
@@ -69527,7 +69527,7 @@
         <v>8648</v>
       </c>
       <c r="B8648">
-        <v>8.566847452421383</v>
+        <v>8.566847452421381</v>
       </c>
     </row>
     <row r="8649" spans="1:2">
@@ -69543,7 +69543,7 @@
         <v>8650</v>
       </c>
       <c r="B8650">
-        <v>5.096827740463322</v>
+        <v>5.096827740463321</v>
       </c>
     </row>
     <row r="8651" spans="1:2">
@@ -69551,7 +69551,7 @@
         <v>8651</v>
       </c>
       <c r="B8651">
-        <v>8.668660331252335</v>
+        <v>8.668660331252333</v>
       </c>
     </row>
     <row r="8652" spans="1:2">
@@ -69783,7 +69783,7 @@
         <v>8680</v>
       </c>
       <c r="B8680">
-        <v>25.86211242087815</v>
+        <v>25.86211242087814</v>
       </c>
     </row>
     <row r="8681" spans="1:2">
@@ -69863,7 +69863,7 @@
         <v>8690</v>
       </c>
       <c r="B8690">
-        <v>3.918975236083376</v>
+        <v>3.918975236083375</v>
       </c>
     </row>
     <row r="8691" spans="1:2">
@@ -70007,7 +70007,7 @@
         <v>8708</v>
       </c>
       <c r="B8708">
-        <v>6.418138518267997</v>
+        <v>6.418138518267996</v>
       </c>
     </row>
     <row r="8709" spans="1:2">
@@ -70047,7 +70047,7 @@
         <v>8713</v>
       </c>
       <c r="B8713">
-        <v>0.3513452839887672</v>
+        <v>0.3513452839887671</v>
       </c>
     </row>
     <row r="8714" spans="1:2">
@@ -70167,7 +70167,7 @@
         <v>8728</v>
       </c>
       <c r="B8728">
-        <v>17.66216060175691</v>
+        <v>17.6621606017569</v>
       </c>
     </row>
     <row r="8729" spans="1:2">
@@ -70415,7 +70415,7 @@
         <v>8759</v>
       </c>
       <c r="B8759">
-        <v>3.918535629525384</v>
+        <v>3.918535629525383</v>
       </c>
     </row>
     <row r="8760" spans="1:2">
